--- a/Exercise.xlsx
+++ b/Exercise.xlsx
@@ -5,15 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pooja\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pooja\Downloads\Microsoft Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B78704F-621C-4427-A260-5DC5D725E3B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DECF44D0-33AA-4DED-A38D-5020B1CBCD70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="16690" yWindow="-320" windowWidth="19420" windowHeight="11020" xr2:uid="{A7F1AEE3-0EAD-4639-A56C-8AAFF0B9C8BF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -34,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="77">
   <si>
     <t>Full Name</t>
   </si>
@@ -54,9 +56,6 @@
     <t>Q4</t>
   </si>
   <si>
-    <t>Full Year</t>
-  </si>
-  <si>
     <t>Chante Devlin</t>
   </si>
   <si>
@@ -85,6 +84,189 @@
   </si>
   <si>
     <t>Kelsi Rich</t>
+  </si>
+  <si>
+    <t>City</t>
+  </si>
+  <si>
+    <t>State</t>
+  </si>
+  <si>
+    <t>Office Type</t>
+  </si>
+  <si>
+    <t>Revenues</t>
+  </si>
+  <si>
+    <t>Operating Expenses</t>
+  </si>
+  <si>
+    <t>Operating Profit</t>
+  </si>
+  <si>
+    <t>Depreciation</t>
+  </si>
+  <si>
+    <t>Net Profit</t>
+  </si>
+  <si>
+    <t>Scorecard</t>
+  </si>
+  <si>
+    <t>Warner, NH</t>
+  </si>
+  <si>
+    <t>Corporate</t>
+  </si>
+  <si>
+    <t>Average Revenue</t>
+  </si>
+  <si>
+    <t>East Natchitoches, RI</t>
+  </si>
+  <si>
+    <t>Franchise</t>
+  </si>
+  <si>
+    <t>Highest Revenue</t>
+  </si>
+  <si>
+    <t>Lyon, MA</t>
+  </si>
+  <si>
+    <t>Partner</t>
+  </si>
+  <si>
+    <t>Lowest Expenses</t>
+  </si>
+  <si>
+    <t>Willow Run, NH</t>
+  </si>
+  <si>
+    <t>Conyersville, RI</t>
+  </si>
+  <si>
+    <t>Mount Baker, NY</t>
+  </si>
+  <si>
+    <t>Farmington Lake, RI</t>
+  </si>
+  <si>
+    <t>Martins Corner, NH</t>
+  </si>
+  <si>
+    <t>Pickerel Narrows, ME</t>
+  </si>
+  <si>
+    <t>Willaha, NY</t>
+  </si>
+  <si>
+    <t>Center, MA</t>
+  </si>
+  <si>
+    <t>Spring City, MA</t>
+  </si>
+  <si>
+    <t>Mittenlane, NY</t>
+  </si>
+  <si>
+    <t>East Waterford, ME</t>
+  </si>
+  <si>
+    <t>Coltman, RI</t>
+  </si>
+  <si>
+    <t>Scottsville, NJ</t>
+  </si>
+  <si>
+    <t>Hebron, NH</t>
+  </si>
+  <si>
+    <t>Longview, MA</t>
+  </si>
+  <si>
+    <t>Emerson, NJ</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>City and State</t>
+  </si>
+  <si>
+    <t>Warner</t>
+  </si>
+  <si>
+    <t>East Natchitoches</t>
+  </si>
+  <si>
+    <t>Lyon</t>
+  </si>
+  <si>
+    <t>Willow Run</t>
+  </si>
+  <si>
+    <t>Conyersville</t>
+  </si>
+  <si>
+    <t>Mount Baker</t>
+  </si>
+  <si>
+    <t>Farmington Lake</t>
+  </si>
+  <si>
+    <t>Martins Corner</t>
+  </si>
+  <si>
+    <t>Pickerel Narrows</t>
+  </si>
+  <si>
+    <t>Willaha</t>
+  </si>
+  <si>
+    <t>Center</t>
+  </si>
+  <si>
+    <t>Spring City</t>
+  </si>
+  <si>
+    <t>Mittenlane</t>
+  </si>
+  <si>
+    <t>East Waterford</t>
+  </si>
+  <si>
+    <t>Coltman</t>
+  </si>
+  <si>
+    <t>Scottsville</t>
+  </si>
+  <si>
+    <t>Hebron</t>
+  </si>
+  <si>
+    <t>Longview</t>
+  </si>
+  <si>
+    <t>Emerson</t>
+  </si>
+  <si>
+    <t>NH</t>
+  </si>
+  <si>
+    <t>RI</t>
+  </si>
+  <si>
+    <t>MA</t>
+  </si>
+  <si>
+    <t>NY</t>
+  </si>
+  <si>
+    <t>ME</t>
+  </si>
+  <si>
+    <t>NJ</t>
   </si>
 </sst>
 </file>
@@ -94,7 +276,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -106,6 +288,13 @@
       <b/>
       <sz val="14"/>
       <color theme="4" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -131,13 +320,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -455,7 +647,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -486,15 +678,15 @@
         <v>5</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>6</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
         <v>7</v>
-      </c>
-      <c r="B2" t="s">
-        <v>8</v>
       </c>
       <c r="C2" s="3">
         <v>275702</v>
@@ -515,10 +707,10 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
         <v>9</v>
-      </c>
-      <c r="B3" t="s">
-        <v>10</v>
       </c>
       <c r="C3" s="3">
         <v>222562</v>
@@ -539,10 +731,10 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
         <v>11</v>
-      </c>
-      <c r="B4" t="s">
-        <v>12</v>
       </c>
       <c r="C4" s="3">
         <v>211070</v>
@@ -563,10 +755,10 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C5" s="3">
         <v>163774</v>
@@ -587,10 +779,10 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s">
         <v>14</v>
-      </c>
-      <c r="B6" t="s">
-        <v>15</v>
       </c>
       <c r="C6" s="3">
         <v>344044</v>
@@ -611,10 +803,10 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C7" s="3">
         <v>324035</v>
@@ -631,6 +823,726 @@
       <c r="G7" s="3">
         <f t="shared" si="0"/>
         <v>1282640</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17D64E18-04DF-4C91-A84C-5EB5EC653CDA}">
+  <dimension ref="A1:T20"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.85546875" customWidth="1"/>
+    <col min="2" max="2" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" customWidth="1"/>
+    <col min="6" max="6" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J1" s="4"/>
+      <c r="K1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2">
+        <v>125319</v>
+      </c>
+      <c r="F2">
+        <v>65792</v>
+      </c>
+      <c r="G2">
+        <f>E2-F2</f>
+        <v>59527</v>
+      </c>
+      <c r="H2">
+        <v>4667</v>
+      </c>
+      <c r="I2">
+        <f>G2-H2</f>
+        <v>54860</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="M2">
+        <f>AVERAGE(E2:E20)</f>
+        <v>276986.5263157895</v>
+      </c>
+      <c r="N2" s="4"/>
+      <c r="P2" s="4"/>
+      <c r="Q2" s="4"/>
+      <c r="R2" s="4"/>
+      <c r="S2" s="4"/>
+      <c r="T2" s="4"/>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3">
+        <v>433924</v>
+      </c>
+      <c r="F3">
+        <v>101465</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G20" si="0">E3-F3</f>
+        <v>332459</v>
+      </c>
+      <c r="H3">
+        <v>5068</v>
+      </c>
+      <c r="I3">
+        <f t="shared" ref="I3:I20" si="1">G3-H3</f>
+        <v>327391</v>
+      </c>
+      <c r="K3" t="s">
+        <v>30</v>
+      </c>
+      <c r="M3">
+        <f>MAX(E2:E20)</f>
+        <v>461214</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4">
+        <v>135816</v>
+      </c>
+      <c r="F4">
+        <v>67388</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="0"/>
+        <v>68428</v>
+      </c>
+      <c r="H4">
+        <v>5700</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="1"/>
+        <v>62728</v>
+      </c>
+      <c r="K4" t="s">
+        <v>33</v>
+      </c>
+      <c r="M4">
+        <f>MIN(E2:E20)</f>
+        <v>125319</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5">
+        <v>233255</v>
+      </c>
+      <c r="F5">
+        <v>83606</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="0"/>
+        <v>149649</v>
+      </c>
+      <c r="H5">
+        <v>5089</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="1"/>
+        <v>144560</v>
+      </c>
+      <c r="K5" s="4"/>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C6" t="s">
+        <v>72</v>
+      </c>
+      <c r="D6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6">
+        <v>128691</v>
+      </c>
+      <c r="F6">
+        <v>67175</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="0"/>
+        <v>61516</v>
+      </c>
+      <c r="H6">
+        <v>4956</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="1"/>
+        <v>56560</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C7" t="s">
+        <v>74</v>
+      </c>
+      <c r="D7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7">
+        <v>244913</v>
+      </c>
+      <c r="F7">
+        <v>89974</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="0"/>
+        <v>154939</v>
+      </c>
+      <c r="H7">
+        <v>5062</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="1"/>
+        <v>149877</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C8" t="s">
+        <v>72</v>
+      </c>
+      <c r="D8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8">
+        <v>392518</v>
+      </c>
+      <c r="F8">
+        <v>82675</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="0"/>
+        <v>309843</v>
+      </c>
+      <c r="H8">
+        <v>6100</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="1"/>
+        <v>303743</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C9" t="s">
+        <v>71</v>
+      </c>
+      <c r="D9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9">
+        <v>331773</v>
+      </c>
+      <c r="F9">
+        <v>85288</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="0"/>
+        <v>246485</v>
+      </c>
+      <c r="H9">
+        <v>5795</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="1"/>
+        <v>240690</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" t="s">
+        <v>60</v>
+      </c>
+      <c r="C10" t="s">
+        <v>75</v>
+      </c>
+      <c r="D10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10">
+        <v>244975</v>
+      </c>
+      <c r="F10">
+        <v>100834</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="0"/>
+        <v>144141</v>
+      </c>
+      <c r="H10">
+        <v>5153</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="1"/>
+        <v>138988</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11" t="s">
+        <v>61</v>
+      </c>
+      <c r="C11" t="s">
+        <v>74</v>
+      </c>
+      <c r="D11" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11">
+        <v>137925</v>
+      </c>
+      <c r="F11">
+        <v>104528</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="0"/>
+        <v>33397</v>
+      </c>
+      <c r="H11">
+        <v>5673</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="1"/>
+        <v>27724</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>41</v>
+      </c>
+      <c r="B12" t="s">
+        <v>62</v>
+      </c>
+      <c r="C12" t="s">
+        <v>73</v>
+      </c>
+      <c r="D12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12">
+        <v>207163</v>
+      </c>
+      <c r="F12">
+        <v>73705</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="0"/>
+        <v>133458</v>
+      </c>
+      <c r="H12">
+        <v>5599</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="1"/>
+        <v>127859</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>42</v>
+      </c>
+      <c r="B13" t="s">
+        <v>63</v>
+      </c>
+      <c r="C13" t="s">
+        <v>73</v>
+      </c>
+      <c r="D13" t="s">
+        <v>32</v>
+      </c>
+      <c r="E13">
+        <v>432326</v>
+      </c>
+      <c r="F13">
+        <v>79297</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="0"/>
+        <v>353029</v>
+      </c>
+      <c r="H13">
+        <v>4872</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="1"/>
+        <v>348157</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B14" t="s">
+        <v>64</v>
+      </c>
+      <c r="C14" t="s">
+        <v>74</v>
+      </c>
+      <c r="D14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E14">
+        <v>177789</v>
+      </c>
+      <c r="F14">
+        <v>103757</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="0"/>
+        <v>74032</v>
+      </c>
+      <c r="H14">
+        <v>5144</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="1"/>
+        <v>68888</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>44</v>
+      </c>
+      <c r="B15" t="s">
+        <v>65</v>
+      </c>
+      <c r="C15" t="s">
+        <v>75</v>
+      </c>
+      <c r="D15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E15">
+        <v>201945</v>
+      </c>
+      <c r="F15">
+        <v>83178</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="0"/>
+        <v>118767</v>
+      </c>
+      <c r="H15">
+        <v>4734</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="1"/>
+        <v>114033</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>45</v>
+      </c>
+      <c r="B16" t="s">
+        <v>66</v>
+      </c>
+      <c r="C16" t="s">
+        <v>72</v>
+      </c>
+      <c r="D16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16">
+        <v>461214</v>
+      </c>
+      <c r="F16">
+        <v>86688</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="0"/>
+        <v>374526</v>
+      </c>
+      <c r="H16">
+        <v>6066</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="1"/>
+        <v>368460</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>46</v>
+      </c>
+      <c r="B17" t="s">
+        <v>67</v>
+      </c>
+      <c r="C17" t="s">
+        <v>76</v>
+      </c>
+      <c r="D17" t="s">
+        <v>32</v>
+      </c>
+      <c r="E17">
+        <v>440462</v>
+      </c>
+      <c r="F17">
+        <v>81912</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="0"/>
+        <v>358550</v>
+      </c>
+      <c r="H17">
+        <v>4842</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="1"/>
+        <v>353708</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>47</v>
+      </c>
+      <c r="B18" t="s">
+        <v>68</v>
+      </c>
+      <c r="C18" t="s">
+        <v>71</v>
+      </c>
+      <c r="D18" t="s">
+        <v>32</v>
+      </c>
+      <c r="E18">
+        <v>407339</v>
+      </c>
+      <c r="F18">
+        <v>88286</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="0"/>
+        <v>319053</v>
+      </c>
+      <c r="H18">
+        <v>4604</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="1"/>
+        <v>314449</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>48</v>
+      </c>
+      <c r="B19" t="s">
+        <v>69</v>
+      </c>
+      <c r="C19" t="s">
+        <v>73</v>
+      </c>
+      <c r="D19" t="s">
+        <v>32</v>
+      </c>
+      <c r="E19">
+        <v>376263</v>
+      </c>
+      <c r="F19">
+        <v>92698</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="0"/>
+        <v>283565</v>
+      </c>
+      <c r="H19">
+        <v>5195</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="1"/>
+        <v>278370</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>49</v>
+      </c>
+      <c r="B20" t="s">
+        <v>70</v>
+      </c>
+      <c r="C20" t="s">
+        <v>76</v>
+      </c>
+      <c r="D20" t="s">
+        <v>29</v>
+      </c>
+      <c r="E20">
+        <v>149134</v>
+      </c>
+      <c r="F20">
+        <v>87513</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="0"/>
+        <v>61621</v>
+      </c>
+      <c r="H20">
+        <v>5168</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="1"/>
+        <v>56453</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A4F40AB-1F15-4573-AC0C-90024DE33C6E}">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2">
+        <v>276986.5263157895</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3">
+        <v>461214</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4">
+        <v>125319</v>
       </c>
     </row>
   </sheetData>
@@ -856,18 +1768,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -890,18 +1802,18 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{16C85F02-9775-4D6C-AF6B-784E84E858E8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0E5A85AC-2CBD-412F-82B1-8F6832D6B804}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{16C85F02-9775-4D6C-AF6B-784E84E858E8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Exercise.xlsx
+++ b/Exercise.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pooja\Downloads\Microsoft Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DECF44D0-33AA-4DED-A38D-5020B1CBCD70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23285723-7560-4DD8-93E6-938CDE8F2472}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="16690" yWindow="-320" windowWidth="19420" windowHeight="11020" xr2:uid="{A7F1AEE3-0EAD-4639-A56C-8AAFF0B9C8BF}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="77">
   <si>
     <t>Full Name</t>
   </si>
@@ -320,7 +320,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -329,6 +329,9 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -646,9 +649,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB2969A0-E328-41DF-8FAC-1B10B2F7DEC8}">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -835,54 +836,53 @@
   <dimension ref="A1:T20"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.85546875" customWidth="1"/>
+    <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16" customWidth="1"/>
-    <col min="4" max="4" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.28515625" customWidth="1"/>
-    <col min="6" max="6" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="24.140625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="16.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>51</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="1" t="s">
         <v>23</v>
       </c>
       <c r="J1" s="4"/>
-      <c r="K1" t="s">
-        <v>24</v>
-      </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -913,13 +913,6 @@
       <c r="I2">
         <f>G2-H2</f>
         <v>54860</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="M2">
-        <f>AVERAGE(E2:E20)</f>
-        <v>276986.5263157895</v>
       </c>
       <c r="N2" s="4"/>
       <c r="P2" s="4"/>
@@ -958,13 +951,6 @@
         <f t="shared" ref="I3:I20" si="1">G3-H3</f>
         <v>327391</v>
       </c>
-      <c r="K3" t="s">
-        <v>30</v>
-      </c>
-      <c r="M3">
-        <f>MAX(E2:E20)</f>
-        <v>461214</v>
-      </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -995,13 +981,6 @@
       <c r="I4">
         <f t="shared" si="1"/>
         <v>62728</v>
-      </c>
-      <c r="K4" t="s">
-        <v>33</v>
-      </c>
-      <c r="M4">
-        <f>MIN(E2:E20)</f>
-        <v>125319</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
@@ -1508,49 +1487,71 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A4F40AB-1F15-4573-AC0C-90024DE33C6E}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B1" s="5"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>27</v>
       </c>
-      <c r="C2">
+      <c r="B2">
         <v>276986.5263157895</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>30</v>
       </c>
-      <c r="C3">
+      <c r="B3">
         <v>461214</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>33</v>
       </c>
-      <c r="C4">
+      <c r="B4">
         <v>125319</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000E1CD5F422E388419BB522F4435A2991" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="e5c10cafc2c37c7f469fd87ac61c85e7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="e126d1a7-de2c-4ae3-80af-dc9ec7d9558b" xmlns:ns3="16c367a0-1ebe-4645-bffe-e50f3117a967" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="64cf9e92a51322bbdec604bdb87428eb" ns2:_="" ns3:_="">
     <xsd:import namespace="e126d1a7-de2c-4ae3-80af-dc9ec7d9558b"/>
@@ -1767,22 +1768,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0E5A85AC-2CBD-412F-82B1-8F6832D6B804}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{16C85F02-9775-4D6C-AF6B-784E84E858E8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DAA3212C-9EA0-4F60-9BC2-AD5EAEF2279B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1799,21 +1802,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{16C85F02-9775-4D6C-AF6B-784E84E858E8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0E5A85AC-2CBD-412F-82B1-8F6832D6B804}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Exercise.xlsx
+++ b/Exercise.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pooja\Downloads\Microsoft Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23285723-7560-4DD8-93E6-938CDE8F2472}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9088A4C3-3425-4674-9649-6B28A37E154E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="16690" yWindow="-320" windowWidth="19420" windowHeight="11020" xr2:uid="{A7F1AEE3-0EAD-4639-A56C-8AAFF0B9C8BF}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Original Dataset" sheetId="4" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="78">
   <si>
     <t>Full Name</t>
   </si>
@@ -267,6 +268,9 @@
   </si>
   <si>
     <t>NJ</t>
+  </si>
+  <si>
+    <t>Full Year</t>
   </si>
 </sst>
 </file>
@@ -320,7 +324,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -329,9 +333,6 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -646,10 +647,555 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F1DC30F-03E5-4845-92EF-BCFF78A27010}">
+  <dimension ref="A1:T20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.85546875" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="3" max="3" width="16" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" customWidth="1"/>
+    <col min="6" max="6" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K1" t="s">
+        <v>1</v>
+      </c>
+      <c r="L1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M1" t="s">
+        <v>3</v>
+      </c>
+      <c r="N1" t="s">
+        <v>4</v>
+      </c>
+      <c r="O1" t="s">
+        <v>5</v>
+      </c>
+      <c r="P1" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2">
+        <v>125319</v>
+      </c>
+      <c r="F2">
+        <v>65792</v>
+      </c>
+      <c r="G2">
+        <f>E2-F2</f>
+        <v>59527</v>
+      </c>
+      <c r="H2">
+        <v>4667</v>
+      </c>
+      <c r="I2">
+        <f>G2-H2</f>
+        <v>54860</v>
+      </c>
+      <c r="J2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K2" t="s">
+        <v>7</v>
+      </c>
+      <c r="L2">
+        <v>275702</v>
+      </c>
+      <c r="M2">
+        <v>261290</v>
+      </c>
+      <c r="N2">
+        <v>332449</v>
+      </c>
+      <c r="O2">
+        <v>282904</v>
+      </c>
+      <c r="P2">
+        <v>1152345</v>
+      </c>
+      <c r="Q2" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="S2">
+        <f>AVERAGE(E2:E20)</f>
+        <v>276986.5263157895</v>
+      </c>
+      <c r="T2" s="4"/>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3">
+        <v>433924</v>
+      </c>
+      <c r="F3">
+        <v>101465</v>
+      </c>
+      <c r="H3">
+        <v>5068</v>
+      </c>
+      <c r="J3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K3" t="s">
+        <v>9</v>
+      </c>
+      <c r="L3">
+        <v>222562</v>
+      </c>
+      <c r="M3">
+        <v>227580</v>
+      </c>
+      <c r="N3">
+        <v>291259</v>
+      </c>
+      <c r="O3">
+        <v>408463</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>30</v>
+      </c>
+      <c r="S3">
+        <f>MAX(E2:E20)</f>
+        <v>461214</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4">
+        <v>135816</v>
+      </c>
+      <c r="F4">
+        <v>67388</v>
+      </c>
+      <c r="H4">
+        <v>5700</v>
+      </c>
+      <c r="J4" t="s">
+        <v>10</v>
+      </c>
+      <c r="K4" t="s">
+        <v>11</v>
+      </c>
+      <c r="L4">
+        <v>211070</v>
+      </c>
+      <c r="M4">
+        <v>203426</v>
+      </c>
+      <c r="N4">
+        <v>194457</v>
+      </c>
+      <c r="O4">
+        <v>358982</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>33</v>
+      </c>
+      <c r="S4">
+        <f>MIN(E2:E20)</f>
+        <v>125319</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5">
+        <v>233255</v>
+      </c>
+      <c r="F5">
+        <v>83606</v>
+      </c>
+      <c r="H5">
+        <v>5089</v>
+      </c>
+      <c r="J5" t="s">
+        <v>12</v>
+      </c>
+      <c r="K5" t="s">
+        <v>9</v>
+      </c>
+      <c r="L5">
+        <v>163774</v>
+      </c>
+      <c r="M5">
+        <v>390208</v>
+      </c>
+      <c r="N5">
+        <v>315982</v>
+      </c>
+      <c r="O5">
+        <v>347702</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6">
+        <v>128691</v>
+      </c>
+      <c r="F6">
+        <v>67175</v>
+      </c>
+      <c r="H6">
+        <v>4956</v>
+      </c>
+      <c r="J6" t="s">
+        <v>13</v>
+      </c>
+      <c r="K6" t="s">
+        <v>14</v>
+      </c>
+      <c r="L6">
+        <v>344044</v>
+      </c>
+      <c r="M6">
+        <v>400640</v>
+      </c>
+      <c r="N6">
+        <v>180535</v>
+      </c>
+      <c r="O6">
+        <v>372475</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7">
+        <v>244913</v>
+      </c>
+      <c r="F7">
+        <v>89974</v>
+      </c>
+      <c r="H7">
+        <v>5062</v>
+      </c>
+      <c r="J7" t="s">
+        <v>15</v>
+      </c>
+      <c r="K7" t="s">
+        <v>9</v>
+      </c>
+      <c r="L7">
+        <v>324035</v>
+      </c>
+      <c r="M7">
+        <v>370979</v>
+      </c>
+      <c r="N7">
+        <v>356277</v>
+      </c>
+      <c r="O7">
+        <v>231349</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8">
+        <v>392518</v>
+      </c>
+      <c r="F8">
+        <v>82675</v>
+      </c>
+      <c r="H8">
+        <v>6100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9">
+        <v>331773</v>
+      </c>
+      <c r="F9">
+        <v>85288</v>
+      </c>
+      <c r="H9">
+        <v>5795</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10">
+        <v>244975</v>
+      </c>
+      <c r="F10">
+        <v>100834</v>
+      </c>
+      <c r="H10">
+        <v>5153</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11">
+        <v>137925</v>
+      </c>
+      <c r="F11">
+        <v>104528</v>
+      </c>
+      <c r="H11">
+        <v>5673</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>41</v>
+      </c>
+      <c r="D12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12">
+        <v>207163</v>
+      </c>
+      <c r="F12">
+        <v>73705</v>
+      </c>
+      <c r="H12">
+        <v>5599</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D13" t="s">
+        <v>32</v>
+      </c>
+      <c r="E13">
+        <v>432326</v>
+      </c>
+      <c r="F13">
+        <v>79297</v>
+      </c>
+      <c r="H13">
+        <v>4872</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>43</v>
+      </c>
+      <c r="D14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E14">
+        <v>177789</v>
+      </c>
+      <c r="F14">
+        <v>103757</v>
+      </c>
+      <c r="H14">
+        <v>5144</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>44</v>
+      </c>
+      <c r="D15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E15">
+        <v>201945</v>
+      </c>
+      <c r="F15">
+        <v>83178</v>
+      </c>
+      <c r="H15">
+        <v>4734</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>45</v>
+      </c>
+      <c r="D16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16">
+        <v>461214</v>
+      </c>
+      <c r="F16">
+        <v>86688</v>
+      </c>
+      <c r="H16">
+        <v>6066</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>46</v>
+      </c>
+      <c r="D17" t="s">
+        <v>32</v>
+      </c>
+      <c r="E17">
+        <v>440462</v>
+      </c>
+      <c r="F17">
+        <v>81912</v>
+      </c>
+      <c r="H17">
+        <v>4842</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>47</v>
+      </c>
+      <c r="D18" t="s">
+        <v>32</v>
+      </c>
+      <c r="E18">
+        <v>407339</v>
+      </c>
+      <c r="F18">
+        <v>88286</v>
+      </c>
+      <c r="H18">
+        <v>4604</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>48</v>
+      </c>
+      <c r="D19" t="s">
+        <v>32</v>
+      </c>
+      <c r="E19">
+        <v>376263</v>
+      </c>
+      <c r="F19">
+        <v>92698</v>
+      </c>
+      <c r="H19">
+        <v>5195</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>49</v>
+      </c>
+      <c r="D20" t="s">
+        <v>29</v>
+      </c>
+      <c r="E20">
+        <v>149134</v>
+      </c>
+      <c r="F20">
+        <v>87513</v>
+      </c>
+      <c r="H20">
+        <v>5168</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB2969A0-E328-41DF-8FAC-1B10B2F7DEC8}">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -831,12 +1377,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17D64E18-04DF-4C91-A84C-5EB5EC653CDA}">
   <dimension ref="A1:T20"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1485,12 +2031,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A4F40AB-1F15-4573-AC0C-90024DE33C6E}">
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1498,11 +2044,11 @@
     <col min="1" max="1" width="16.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="5"/>
+      <c r="B1" s="1"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -1529,29 +2075,11 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:B1"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000E1CD5F422E388419BB522F4435A2991" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="e5c10cafc2c37c7f469fd87ac61c85e7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="e126d1a7-de2c-4ae3-80af-dc9ec7d9558b" xmlns:ns3="16c367a0-1ebe-4645-bffe-e50f3117a967" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="64cf9e92a51322bbdec604bdb87428eb" ns2:_="" ns3:_="">
     <xsd:import namespace="e126d1a7-de2c-4ae3-80af-dc9ec7d9558b"/>
@@ -1768,24 +2296,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0E5A85AC-2CBD-412F-82B1-8F6832D6B804}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{16C85F02-9775-4D6C-AF6B-784E84E858E8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DAA3212C-9EA0-4F60-9BC2-AD5EAEF2279B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1802,4 +2328,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{16C85F02-9775-4D6C-AF6B-784E84E858E8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0E5A85AC-2CBD-412F-82B1-8F6832D6B804}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Exercise.xlsx
+++ b/Exercise.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pooja\Downloads\Microsoft Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9088A4C3-3425-4674-9649-6B28A37E154E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D3062D9-5489-431B-AB3E-76B14D4E05B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16690" yWindow="-320" windowWidth="19420" windowHeight="11020" xr2:uid="{A7F1AEE3-0EAD-4639-A56C-8AAFF0B9C8BF}"/>
+    <workbookView xWindow="16690" yWindow="-320" windowWidth="19420" windowHeight="11020" activeTab="3" xr2:uid="{A7F1AEE3-0EAD-4639-A56C-8AAFF0B9C8BF}"/>
   </bookViews>
   <sheets>
     <sheet name="Original Dataset" sheetId="4" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
+    <sheet name="Financial Data" sheetId="2" r:id="rId3"/>
+    <sheet name="Financial Scorecard" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -277,8 +277,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0"/>
+    <numFmt numFmtId="169" formatCode="_-[$$-409]* #,##0_ ;_-[$$-409]* \-#,##0\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -304,15 +305,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -320,11 +327,20 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -334,6 +350,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -650,7 +668,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F1DC30F-03E5-4845-92EF-BCFF78A27010}">
   <dimension ref="A1:T20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
@@ -1382,7 +1400,7 @@
   <dimension ref="A1:T20"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1400,32 +1418,32 @@
     <col min="15" max="15" width="16.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>51</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="6" t="s">
         <v>23</v>
       </c>
       <c r="J1" s="4"/>
@@ -1443,20 +1461,20 @@
       <c r="D2" t="s">
         <v>26</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="5">
         <v>125319</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="5">
         <v>65792</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="5">
         <f>E2-F2</f>
         <v>59527</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="5">
         <v>4667</v>
       </c>
-      <c r="I2">
+      <c r="I2" s="5">
         <f>G2-H2</f>
         <v>54860</v>
       </c>
@@ -1480,20 +1498,20 @@
       <c r="D3" t="s">
         <v>29</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="5">
         <v>433924</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="5">
         <v>101465</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="5">
         <f t="shared" ref="G3:G20" si="0">E3-F3</f>
         <v>332459</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="5">
         <v>5068</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="5">
         <f t="shared" ref="I3:I20" si="1">G3-H3</f>
         <v>327391</v>
       </c>
@@ -1511,20 +1529,20 @@
       <c r="D4" t="s">
         <v>32</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="5">
         <v>135816</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="5">
         <v>67388</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="5">
         <f t="shared" si="0"/>
         <v>68428</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="5">
         <v>5700</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="5">
         <f t="shared" si="1"/>
         <v>62728</v>
       </c>
@@ -1542,20 +1560,20 @@
       <c r="D5" t="s">
         <v>26</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="5">
         <v>233255</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="5">
         <v>83606</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="5">
         <f t="shared" si="0"/>
         <v>149649</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="5">
         <v>5089</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="5">
         <f t="shared" si="1"/>
         <v>144560</v>
       </c>
@@ -1574,20 +1592,20 @@
       <c r="D6" t="s">
         <v>29</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="5">
         <v>128691</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="5">
         <v>67175</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="5">
         <f t="shared" si="0"/>
         <v>61516</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="5">
         <v>4956</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="5">
         <f t="shared" si="1"/>
         <v>56560</v>
       </c>
@@ -1605,20 +1623,20 @@
       <c r="D7" t="s">
         <v>26</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="5">
         <v>244913</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="5">
         <v>89974</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="5">
         <f t="shared" si="0"/>
         <v>154939</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="5">
         <v>5062</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="5">
         <f t="shared" si="1"/>
         <v>149877</v>
       </c>
@@ -1636,20 +1654,20 @@
       <c r="D8" t="s">
         <v>29</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="5">
         <v>392518</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="5">
         <v>82675</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="5">
         <f t="shared" si="0"/>
         <v>309843</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="5">
         <v>6100</v>
       </c>
-      <c r="I8">
+      <c r="I8" s="5">
         <f t="shared" si="1"/>
         <v>303743</v>
       </c>
@@ -1667,20 +1685,20 @@
       <c r="D9" t="s">
         <v>29</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="5">
         <v>331773</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="5">
         <v>85288</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="5">
         <f t="shared" si="0"/>
         <v>246485</v>
       </c>
-      <c r="H9">
+      <c r="H9" s="5">
         <v>5795</v>
       </c>
-      <c r="I9">
+      <c r="I9" s="5">
         <f t="shared" si="1"/>
         <v>240690</v>
       </c>
@@ -1698,20 +1716,20 @@
       <c r="D10" t="s">
         <v>32</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="5">
         <v>244975</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="5">
         <v>100834</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="5">
         <f t="shared" si="0"/>
         <v>144141</v>
       </c>
-      <c r="H10">
+      <c r="H10" s="5">
         <v>5153</v>
       </c>
-      <c r="I10">
+      <c r="I10" s="5">
         <f t="shared" si="1"/>
         <v>138988</v>
       </c>
@@ -1729,20 +1747,20 @@
       <c r="D11" t="s">
         <v>32</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="5">
         <v>137925</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="5">
         <v>104528</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="5">
         <f t="shared" si="0"/>
         <v>33397</v>
       </c>
-      <c r="H11">
+      <c r="H11" s="5">
         <v>5673</v>
       </c>
-      <c r="I11">
+      <c r="I11" s="5">
         <f t="shared" si="1"/>
         <v>27724</v>
       </c>
@@ -1760,20 +1778,20 @@
       <c r="D12" t="s">
         <v>26</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="5">
         <v>207163</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="5">
         <v>73705</v>
       </c>
-      <c r="G12">
+      <c r="G12" s="5">
         <f t="shared" si="0"/>
         <v>133458</v>
       </c>
-      <c r="H12">
+      <c r="H12" s="5">
         <v>5599</v>
       </c>
-      <c r="I12">
+      <c r="I12" s="5">
         <f t="shared" si="1"/>
         <v>127859</v>
       </c>
@@ -1791,20 +1809,20 @@
       <c r="D13" t="s">
         <v>32</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="5">
         <v>432326</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="5">
         <v>79297</v>
       </c>
-      <c r="G13">
+      <c r="G13" s="5">
         <f t="shared" si="0"/>
         <v>353029</v>
       </c>
-      <c r="H13">
+      <c r="H13" s="5">
         <v>4872</v>
       </c>
-      <c r="I13">
+      <c r="I13" s="5">
         <f t="shared" si="1"/>
         <v>348157</v>
       </c>
@@ -1822,20 +1840,20 @@
       <c r="D14" t="s">
         <v>32</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="5">
         <v>177789</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="5">
         <v>103757</v>
       </c>
-      <c r="G14">
+      <c r="G14" s="5">
         <f t="shared" si="0"/>
         <v>74032</v>
       </c>
-      <c r="H14">
+      <c r="H14" s="5">
         <v>5144</v>
       </c>
-      <c r="I14">
+      <c r="I14" s="5">
         <f t="shared" si="1"/>
         <v>68888</v>
       </c>
@@ -1853,20 +1871,20 @@
       <c r="D15" t="s">
         <v>29</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="5">
         <v>201945</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="5">
         <v>83178</v>
       </c>
-      <c r="G15">
+      <c r="G15" s="5">
         <f t="shared" si="0"/>
         <v>118767</v>
       </c>
-      <c r="H15">
+      <c r="H15" s="5">
         <v>4734</v>
       </c>
-      <c r="I15">
+      <c r="I15" s="5">
         <f t="shared" si="1"/>
         <v>114033</v>
       </c>
@@ -1884,20 +1902,20 @@
       <c r="D16" t="s">
         <v>26</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="5">
         <v>461214</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="5">
         <v>86688</v>
       </c>
-      <c r="G16">
+      <c r="G16" s="5">
         <f t="shared" si="0"/>
         <v>374526</v>
       </c>
-      <c r="H16">
+      <c r="H16" s="5">
         <v>6066</v>
       </c>
-      <c r="I16">
+      <c r="I16" s="5">
         <f t="shared" si="1"/>
         <v>368460</v>
       </c>
@@ -1915,20 +1933,20 @@
       <c r="D17" t="s">
         <v>32</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="5">
         <v>440462</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="5">
         <v>81912</v>
       </c>
-      <c r="G17">
+      <c r="G17" s="5">
         <f t="shared" si="0"/>
         <v>358550</v>
       </c>
-      <c r="H17">
+      <c r="H17" s="5">
         <v>4842</v>
       </c>
-      <c r="I17">
+      <c r="I17" s="5">
         <f t="shared" si="1"/>
         <v>353708</v>
       </c>
@@ -1946,20 +1964,20 @@
       <c r="D18" t="s">
         <v>32</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="5">
         <v>407339</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="5">
         <v>88286</v>
       </c>
-      <c r="G18">
+      <c r="G18" s="5">
         <f t="shared" si="0"/>
         <v>319053</v>
       </c>
-      <c r="H18">
+      <c r="H18" s="5">
         <v>4604</v>
       </c>
-      <c r="I18">
+      <c r="I18" s="5">
         <f t="shared" si="1"/>
         <v>314449</v>
       </c>
@@ -1977,20 +1995,20 @@
       <c r="D19" t="s">
         <v>32</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="5">
         <v>376263</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="5">
         <v>92698</v>
       </c>
-      <c r="G19">
+      <c r="G19" s="5">
         <f t="shared" si="0"/>
         <v>283565</v>
       </c>
-      <c r="H19">
+      <c r="H19" s="5">
         <v>5195</v>
       </c>
-      <c r="I19">
+      <c r="I19" s="5">
         <f t="shared" si="1"/>
         <v>278370</v>
       </c>
@@ -2008,20 +2026,20 @@
       <c r="D20" t="s">
         <v>29</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="5">
         <v>149134</v>
       </c>
-      <c r="F20">
+      <c r="F20" s="5">
         <v>87513</v>
       </c>
-      <c r="G20">
+      <c r="G20" s="5">
         <f t="shared" si="0"/>
         <v>61621</v>
       </c>
-      <c r="H20">
+      <c r="H20" s="5">
         <v>5168</v>
       </c>
-      <c r="I20">
+      <c r="I20" s="5">
         <f t="shared" si="1"/>
         <v>56453</v>
       </c>
@@ -2035,13 +2053,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A4F40AB-1F15-4573-AC0C-90024DE33C6E}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
@@ -2054,7 +2073,7 @@
       <c r="A2" t="s">
         <v>27</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="5">
         <v>276986.5263157895</v>
       </c>
     </row>
@@ -2062,7 +2081,7 @@
       <c r="A3" t="s">
         <v>30</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="5">
         <v>461214</v>
       </c>
     </row>
@@ -2070,7 +2089,7 @@
       <c r="A4" t="s">
         <v>33</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="5">
         <v>125319</v>
       </c>
     </row>
@@ -2080,6 +2099,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000E1CD5F422E388419BB522F4435A2991" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="e5c10cafc2c37c7f469fd87ac61c85e7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="e126d1a7-de2c-4ae3-80af-dc9ec7d9558b" xmlns:ns3="16c367a0-1ebe-4645-bffe-e50f3117a967" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="64cf9e92a51322bbdec604bdb87428eb" ns2:_="" ns3:_="">
     <xsd:import namespace="e126d1a7-de2c-4ae3-80af-dc9ec7d9558b"/>
@@ -2296,22 +2330,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0E5A85AC-2CBD-412F-82B1-8F6832D6B804}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{16C85F02-9775-4D6C-AF6B-784E84E858E8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DAA3212C-9EA0-4F60-9BC2-AD5EAEF2279B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2328,21 +2364,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{16C85F02-9775-4D6C-AF6B-784E84E858E8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0E5A85AC-2CBD-412F-82B1-8F6832D6B804}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Exercise.xlsx
+++ b/Exercise.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pooja\Downloads\Microsoft Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D3062D9-5489-431B-AB3E-76B14D4E05B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F2FA581-62D3-4703-970F-C47C6AAF1E2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="16690" yWindow="-320" windowWidth="19420" windowHeight="11020" activeTab="3" xr2:uid="{A7F1AEE3-0EAD-4639-A56C-8AAFF0B9C8BF}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="77">
   <si>
     <t>Full Name</t>
   </si>
@@ -190,9 +190,6 @@
   </si>
   <si>
     <t>Total</t>
-  </si>
-  <si>
-    <t>City and State</t>
   </si>
   <si>
     <t>Warner</t>
@@ -279,7 +276,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0"/>
-    <numFmt numFmtId="169" formatCode="_-[$$-409]* #,##0_ ;_-[$$-409]* \-#,##0\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
+    <numFmt numFmtId="165" formatCode="_-[$$-409]* #,##0_ ;_-[$$-409]* \-#,##0\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -340,7 +337,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -350,8 +347,25 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -732,7 +746,7 @@
         <v>5</v>
       </c>
       <c r="P1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Q1" t="s">
         <v>24</v>
@@ -1397,649 +1411,585 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17D64E18-04DF-4C91-A84C-5EB5EC653CDA}">
-  <dimension ref="A1:T20"/>
+  <dimension ref="A1:S20"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8" style="10" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="8" width="15.7109375" customWidth="1"/>
+    <col min="9" max="9" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+    <row r="1" spans="1:19" s="8" customFormat="1" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1" s="6"/>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A2" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="B1" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="J1" s="4"/>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C2" t="s">
-        <v>71</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="B2" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="C2" s="10" t="s">
         <v>26</v>
       </c>
+      <c r="D2" s="5">
+        <v>125319</v>
+      </c>
       <c r="E2" s="5">
-        <v>125319</v>
+        <v>65792</v>
       </c>
       <c r="F2" s="5">
-        <v>65792</v>
+        <f>D2-E2</f>
+        <v>59527</v>
       </c>
       <c r="G2" s="5">
-        <f>E2-F2</f>
-        <v>59527</v>
+        <v>4667</v>
       </c>
       <c r="H2" s="5">
-        <v>4667</v>
-      </c>
-      <c r="I2" s="5">
-        <f>G2-H2</f>
+        <f>F2-G2</f>
         <v>54860</v>
       </c>
-      <c r="N2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="O2" s="4"/>
       <c r="P2" s="4"/>
       <c r="Q2" s="4"/>
       <c r="R2" s="4"/>
       <c r="S2" s="4"/>
-      <c r="T2" s="4"/>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B3" t="s">
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" s="5">
+        <v>433924</v>
+      </c>
+      <c r="E3" s="5">
+        <v>101465</v>
+      </c>
+      <c r="F3" s="5">
+        <f t="shared" ref="F3:F20" si="0">D3-E3</f>
+        <v>332459</v>
+      </c>
+      <c r="G3" s="5">
+        <v>5068</v>
+      </c>
+      <c r="H3" s="5">
+        <f t="shared" ref="H3:H20" si="1">F3-G3</f>
+        <v>327391</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="C3" t="s">
+      <c r="B4" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="D3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E3" s="5">
-        <v>433924</v>
-      </c>
-      <c r="F3" s="5">
-        <v>101465</v>
-      </c>
-      <c r="G3" s="5">
-        <f t="shared" ref="G3:G20" si="0">E3-F3</f>
-        <v>332459</v>
-      </c>
-      <c r="H3" s="5">
-        <v>5068</v>
-      </c>
-      <c r="I3" s="5">
-        <f t="shared" ref="I3:I20" si="1">G3-H3</f>
-        <v>327391</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B4" t="s">
-        <v>54</v>
-      </c>
-      <c r="C4" t="s">
-        <v>73</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="C4" s="10" t="s">
         <v>32</v>
       </c>
+      <c r="D4" s="5">
+        <v>135816</v>
+      </c>
       <c r="E4" s="5">
-        <v>135816</v>
+        <v>67388</v>
       </c>
       <c r="F4" s="5">
-        <v>67388</v>
-      </c>
-      <c r="G4" s="5">
         <f t="shared" si="0"/>
         <v>68428</v>
       </c>
+      <c r="G4" s="5">
+        <v>5700</v>
+      </c>
       <c r="H4" s="5">
-        <v>5700</v>
-      </c>
-      <c r="I4" s="5">
         <f t="shared" si="1"/>
         <v>62728</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B5" t="s">
-        <v>55</v>
-      </c>
-      <c r="C5" t="s">
-        <v>71</v>
-      </c>
-      <c r="D5" t="s">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A5" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="C5" s="10" t="s">
         <v>26</v>
       </c>
+      <c r="D5" s="5">
+        <v>233255</v>
+      </c>
       <c r="E5" s="5">
-        <v>233255</v>
+        <v>83606</v>
       </c>
       <c r="F5" s="5">
-        <v>83606</v>
-      </c>
-      <c r="G5" s="5">
         <f t="shared" si="0"/>
         <v>149649</v>
       </c>
+      <c r="G5" s="5">
+        <v>5089</v>
+      </c>
       <c r="H5" s="5">
-        <v>5089</v>
-      </c>
-      <c r="I5" s="5">
         <f t="shared" si="1"/>
         <v>144560</v>
       </c>
-      <c r="K5" s="4"/>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>35</v>
-      </c>
-      <c r="B6" t="s">
-        <v>56</v>
-      </c>
-      <c r="C6" t="s">
-        <v>72</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="J5" s="4"/>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A6" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="C6" s="10" t="s">
         <v>29</v>
       </c>
+      <c r="D6" s="5">
+        <v>128691</v>
+      </c>
       <c r="E6" s="5">
-        <v>128691</v>
+        <v>67175</v>
       </c>
       <c r="F6" s="5">
-        <v>67175</v>
-      </c>
-      <c r="G6" s="5">
         <f t="shared" si="0"/>
         <v>61516</v>
       </c>
+      <c r="G6" s="5">
+        <v>4956</v>
+      </c>
       <c r="H6" s="5">
-        <v>4956</v>
-      </c>
-      <c r="I6" s="5">
         <f t="shared" si="1"/>
         <v>56560</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>36</v>
-      </c>
-      <c r="B7" t="s">
-        <v>57</v>
-      </c>
-      <c r="C7" t="s">
-        <v>74</v>
-      </c>
-      <c r="D7" t="s">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A7" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="C7" s="10" t="s">
         <v>26</v>
       </c>
+      <c r="D7" s="5">
+        <v>244913</v>
+      </c>
       <c r="E7" s="5">
-        <v>244913</v>
+        <v>89974</v>
       </c>
       <c r="F7" s="5">
-        <v>89974</v>
-      </c>
-      <c r="G7" s="5">
         <f t="shared" si="0"/>
         <v>154939</v>
       </c>
+      <c r="G7" s="5">
+        <v>5062</v>
+      </c>
       <c r="H7" s="5">
-        <v>5062</v>
-      </c>
-      <c r="I7" s="5">
         <f t="shared" si="1"/>
         <v>149877</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>37</v>
-      </c>
-      <c r="B8" t="s">
-        <v>58</v>
-      </c>
-      <c r="C8" t="s">
-        <v>72</v>
-      </c>
-      <c r="D8" t="s">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A8" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="C8" s="10" t="s">
         <v>29</v>
       </c>
+      <c r="D8" s="5">
+        <v>392518</v>
+      </c>
       <c r="E8" s="5">
-        <v>392518</v>
+        <v>82675</v>
       </c>
       <c r="F8" s="5">
-        <v>82675</v>
-      </c>
-      <c r="G8" s="5">
         <f t="shared" si="0"/>
         <v>309843</v>
       </c>
+      <c r="G8" s="5">
+        <v>6100</v>
+      </c>
       <c r="H8" s="5">
-        <v>6100</v>
-      </c>
-      <c r="I8" s="5">
         <f t="shared" si="1"/>
         <v>303743</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>38</v>
-      </c>
-      <c r="B9" t="s">
-        <v>59</v>
-      </c>
-      <c r="C9" t="s">
-        <v>71</v>
-      </c>
-      <c r="D9" t="s">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A9" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="C9" s="10" t="s">
         <v>29</v>
       </c>
+      <c r="D9" s="5">
+        <v>331773</v>
+      </c>
       <c r="E9" s="5">
-        <v>331773</v>
+        <v>85288</v>
       </c>
       <c r="F9" s="5">
-        <v>85288</v>
-      </c>
-      <c r="G9" s="5">
         <f t="shared" si="0"/>
         <v>246485</v>
       </c>
+      <c r="G9" s="5">
+        <v>5795</v>
+      </c>
       <c r="H9" s="5">
-        <v>5795</v>
-      </c>
-      <c r="I9" s="5">
         <f t="shared" si="1"/>
         <v>240690</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>39</v>
-      </c>
-      <c r="B10" t="s">
-        <v>60</v>
-      </c>
-      <c r="C10" t="s">
-        <v>75</v>
-      </c>
-      <c r="D10" t="s">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A10" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="C10" s="10" t="s">
         <v>32</v>
       </c>
+      <c r="D10" s="5">
+        <v>244975</v>
+      </c>
       <c r="E10" s="5">
-        <v>244975</v>
+        <v>100834</v>
       </c>
       <c r="F10" s="5">
-        <v>100834</v>
-      </c>
-      <c r="G10" s="5">
         <f t="shared" si="0"/>
         <v>144141</v>
       </c>
+      <c r="G10" s="5">
+        <v>5153</v>
+      </c>
       <c r="H10" s="5">
-        <v>5153</v>
-      </c>
-      <c r="I10" s="5">
         <f t="shared" si="1"/>
         <v>138988</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>40</v>
-      </c>
-      <c r="B11" t="s">
-        <v>61</v>
-      </c>
-      <c r="C11" t="s">
-        <v>74</v>
-      </c>
-      <c r="D11" t="s">
+      <c r="J10" s="7"/>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A11" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="C11" s="10" t="s">
         <v>32</v>
       </c>
+      <c r="D11" s="5">
+        <v>137925</v>
+      </c>
       <c r="E11" s="5">
-        <v>137925</v>
+        <v>104528</v>
       </c>
       <c r="F11" s="5">
-        <v>104528</v>
-      </c>
-      <c r="G11" s="5">
         <f t="shared" si="0"/>
         <v>33397</v>
       </c>
+      <c r="G11" s="5">
+        <v>5673</v>
+      </c>
       <c r="H11" s="5">
-        <v>5673</v>
-      </c>
-      <c r="I11" s="5">
         <f t="shared" si="1"/>
         <v>27724</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>41</v>
-      </c>
-      <c r="B12" t="s">
-        <v>62</v>
-      </c>
-      <c r="C12" t="s">
-        <v>73</v>
-      </c>
-      <c r="D12" t="s">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A12" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="C12" s="10" t="s">
         <v>26</v>
       </c>
+      <c r="D12" s="5">
+        <v>207163</v>
+      </c>
       <c r="E12" s="5">
-        <v>207163</v>
+        <v>73705</v>
       </c>
       <c r="F12" s="5">
-        <v>73705</v>
-      </c>
-      <c r="G12" s="5">
         <f t="shared" si="0"/>
         <v>133458</v>
       </c>
+      <c r="G12" s="5">
+        <v>5599</v>
+      </c>
       <c r="H12" s="5">
-        <v>5599</v>
-      </c>
-      <c r="I12" s="5">
         <f t="shared" si="1"/>
         <v>127859</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>42</v>
-      </c>
-      <c r="B13" t="s">
-        <v>63</v>
-      </c>
-      <c r="C13" t="s">
-        <v>73</v>
-      </c>
-      <c r="D13" t="s">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A13" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="C13" s="10" t="s">
         <v>32</v>
       </c>
+      <c r="D13" s="5">
+        <v>432326</v>
+      </c>
       <c r="E13" s="5">
-        <v>432326</v>
+        <v>79297</v>
       </c>
       <c r="F13" s="5">
-        <v>79297</v>
-      </c>
-      <c r="G13" s="5">
         <f t="shared" si="0"/>
         <v>353029</v>
       </c>
+      <c r="G13" s="5">
+        <v>4872</v>
+      </c>
       <c r="H13" s="5">
-        <v>4872</v>
-      </c>
-      <c r="I13" s="5">
         <f t="shared" si="1"/>
         <v>348157</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>43</v>
-      </c>
-      <c r="B14" t="s">
-        <v>64</v>
-      </c>
-      <c r="C14" t="s">
-        <v>74</v>
-      </c>
-      <c r="D14" t="s">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A14" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="C14" s="10" t="s">
         <v>32</v>
       </c>
+      <c r="D14" s="5">
+        <v>177789</v>
+      </c>
       <c r="E14" s="5">
-        <v>177789</v>
+        <v>103757</v>
       </c>
       <c r="F14" s="5">
-        <v>103757</v>
-      </c>
-      <c r="G14" s="5">
         <f t="shared" si="0"/>
         <v>74032</v>
       </c>
+      <c r="G14" s="5">
+        <v>5144</v>
+      </c>
       <c r="H14" s="5">
-        <v>5144</v>
-      </c>
-      <c r="I14" s="5">
         <f t="shared" si="1"/>
         <v>68888</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>44</v>
-      </c>
-      <c r="B15" t="s">
-        <v>65</v>
-      </c>
-      <c r="C15" t="s">
-        <v>75</v>
-      </c>
-      <c r="D15" t="s">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A15" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="C15" s="10" t="s">
         <v>29</v>
       </c>
+      <c r="D15" s="5">
+        <v>201945</v>
+      </c>
       <c r="E15" s="5">
-        <v>201945</v>
+        <v>83178</v>
       </c>
       <c r="F15" s="5">
-        <v>83178</v>
-      </c>
-      <c r="G15" s="5">
         <f t="shared" si="0"/>
         <v>118767</v>
       </c>
+      <c r="G15" s="5">
+        <v>4734</v>
+      </c>
       <c r="H15" s="5">
-        <v>4734</v>
-      </c>
-      <c r="I15" s="5">
         <f t="shared" si="1"/>
         <v>114033</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>45</v>
-      </c>
-      <c r="B16" t="s">
-        <v>66</v>
-      </c>
-      <c r="C16" t="s">
-        <v>72</v>
-      </c>
-      <c r="D16" t="s">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A16" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="C16" s="10" t="s">
         <v>26</v>
       </c>
+      <c r="D16" s="5">
+        <v>461214</v>
+      </c>
       <c r="E16" s="5">
-        <v>461214</v>
+        <v>86688</v>
       </c>
       <c r="F16" s="5">
-        <v>86688</v>
-      </c>
-      <c r="G16" s="5">
         <f t="shared" si="0"/>
         <v>374526</v>
       </c>
+      <c r="G16" s="5">
+        <v>6066</v>
+      </c>
       <c r="H16" s="5">
-        <v>6066</v>
-      </c>
-      <c r="I16" s="5">
         <f t="shared" si="1"/>
         <v>368460</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>46</v>
-      </c>
-      <c r="B17" t="s">
-        <v>67</v>
-      </c>
-      <c r="C17" t="s">
-        <v>76</v>
-      </c>
-      <c r="D17" t="s">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="C17" s="10" t="s">
         <v>32</v>
       </c>
+      <c r="D17" s="5">
+        <v>440462</v>
+      </c>
       <c r="E17" s="5">
-        <v>440462</v>
+        <v>81912</v>
       </c>
       <c r="F17" s="5">
-        <v>81912</v>
-      </c>
-      <c r="G17" s="5">
         <f t="shared" si="0"/>
         <v>358550</v>
       </c>
+      <c r="G17" s="5">
+        <v>4842</v>
+      </c>
       <c r="H17" s="5">
-        <v>4842</v>
-      </c>
-      <c r="I17" s="5">
         <f t="shared" si="1"/>
         <v>353708</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>47</v>
-      </c>
-      <c r="B18" t="s">
-        <v>68</v>
-      </c>
-      <c r="C18" t="s">
-        <v>71</v>
-      </c>
-      <c r="D18" t="s">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="C18" s="10" t="s">
         <v>32</v>
       </c>
+      <c r="D18" s="5">
+        <v>407339</v>
+      </c>
       <c r="E18" s="5">
-        <v>407339</v>
+        <v>88286</v>
       </c>
       <c r="F18" s="5">
-        <v>88286</v>
-      </c>
-      <c r="G18" s="5">
         <f t="shared" si="0"/>
         <v>319053</v>
       </c>
+      <c r="G18" s="5">
+        <v>4604</v>
+      </c>
       <c r="H18" s="5">
-        <v>4604</v>
-      </c>
-      <c r="I18" s="5">
         <f t="shared" si="1"/>
         <v>314449</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>48</v>
-      </c>
-      <c r="B19" t="s">
-        <v>69</v>
-      </c>
-      <c r="C19" t="s">
-        <v>73</v>
-      </c>
-      <c r="D19" t="s">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="C19" s="10" t="s">
         <v>32</v>
       </c>
+      <c r="D19" s="5">
+        <v>376263</v>
+      </c>
       <c r="E19" s="5">
-        <v>376263</v>
+        <v>92698</v>
       </c>
       <c r="F19" s="5">
-        <v>92698</v>
-      </c>
-      <c r="G19" s="5">
         <f t="shared" si="0"/>
         <v>283565</v>
       </c>
+      <c r="G19" s="5">
+        <v>5195</v>
+      </c>
       <c r="H19" s="5">
-        <v>5195</v>
-      </c>
-      <c r="I19" s="5">
         <f t="shared" si="1"/>
         <v>278370</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>49</v>
-      </c>
-      <c r="B20" t="s">
-        <v>70</v>
-      </c>
-      <c r="C20" t="s">
-        <v>76</v>
-      </c>
-      <c r="D20" t="s">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="C20" s="10" t="s">
         <v>29</v>
       </c>
+      <c r="D20" s="5">
+        <v>149134</v>
+      </c>
       <c r="E20" s="5">
-        <v>149134</v>
+        <v>87513</v>
       </c>
       <c r="F20" s="5">
-        <v>87513</v>
-      </c>
-      <c r="G20" s="5">
         <f t="shared" si="0"/>
         <v>61621</v>
       </c>
+      <c r="G20" s="5">
+        <v>5168</v>
+      </c>
       <c r="H20" s="5">
-        <v>5168</v>
-      </c>
-      <c r="I20" s="5">
         <f t="shared" si="1"/>
         <v>56453</v>
       </c>
@@ -2054,7 +2004,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2063,11 +2013,11 @@
     <col min="2" max="2" width="14.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="1"/>
+      <c r="B1" s="11"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -2094,26 +2044,14 @@
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000E1CD5F422E388419BB522F4435A2991" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="e5c10cafc2c37c7f469fd87ac61c85e7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="e126d1a7-de2c-4ae3-80af-dc9ec7d9558b" xmlns:ns3="16c367a0-1ebe-4645-bffe-e50f3117a967" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="64cf9e92a51322bbdec604bdb87428eb" ns2:_="" ns3:_="">
     <xsd:import namespace="e126d1a7-de2c-4ae3-80af-dc9ec7d9558b"/>
@@ -2330,24 +2268,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0E5A85AC-2CBD-412F-82B1-8F6832D6B804}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{16C85F02-9775-4D6C-AF6B-784E84E858E8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DAA3212C-9EA0-4F60-9BC2-AD5EAEF2279B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2364,4 +2300,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{16C85F02-9775-4D6C-AF6B-784E84E858E8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0E5A85AC-2CBD-412F-82B1-8F6832D6B804}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Exercise.xlsx
+++ b/Exercise.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pooja\Downloads\Microsoft Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F2FA581-62D3-4703-970F-C47C6AAF1E2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{527CFAB5-C13F-423A-9CC4-5B9D483AAD89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16690" yWindow="-320" windowWidth="19420" windowHeight="11020" activeTab="3" xr2:uid="{A7F1AEE3-0EAD-4639-A56C-8AAFF0B9C8BF}"/>
+    <workbookView xWindow="16690" yWindow="-320" windowWidth="19420" windowHeight="11020" xr2:uid="{A7F1AEE3-0EAD-4639-A56C-8AAFF0B9C8BF}"/>
   </bookViews>
   <sheets>
     <sheet name="Original Dataset" sheetId="4" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
+    <sheet name="Sales Data" sheetId="1" r:id="rId2"/>
     <sheet name="Financial Data" sheetId="2" r:id="rId3"/>
     <sheet name="Financial Scorecard" sheetId="3" r:id="rId4"/>
   </sheets>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="153">
   <si>
     <t>Full Name</t>
   </si>
@@ -267,7 +267,235 @@
     <t>NJ</t>
   </si>
   <si>
-    <t>Full Year</t>
+    <t>Region and Sub-Region</t>
+  </si>
+  <si>
+    <t>Bonita Sykes</t>
+  </si>
+  <si>
+    <t>North America/New York</t>
+  </si>
+  <si>
+    <t>Cairo Pemberton</t>
+  </si>
+  <si>
+    <t>Asia/Manilla</t>
+  </si>
+  <si>
+    <t>Africa/Tangier</t>
+  </si>
+  <si>
+    <t>Erica Prince</t>
+  </si>
+  <si>
+    <t>Europe/Lisbon</t>
+  </si>
+  <si>
+    <t>North America/Chicago</t>
+  </si>
+  <si>
+    <t>Europe/London</t>
+  </si>
+  <si>
+    <t>North America/Dallas</t>
+  </si>
+  <si>
+    <t>Harley Chase</t>
+  </si>
+  <si>
+    <t>Europe/Paris</t>
+  </si>
+  <si>
+    <t>Henri Mays</t>
+  </si>
+  <si>
+    <t>Europe/Seville</t>
+  </si>
+  <si>
+    <t>Jaheim Swan</t>
+  </si>
+  <si>
+    <t>Jeff Wong</t>
+  </si>
+  <si>
+    <t>South America/Santiago</t>
+  </si>
+  <si>
+    <t>Asia/Tokyo</t>
+  </si>
+  <si>
+    <t>Katharine Handley</t>
+  </si>
+  <si>
+    <t>Asia/Seoul</t>
+  </si>
+  <si>
+    <t>North America/Boston</t>
+  </si>
+  <si>
+    <t>Lorelai Austin</t>
+  </si>
+  <si>
+    <t>South America/Caracas</t>
+  </si>
+  <si>
+    <t>Maurice Powers</t>
+  </si>
+  <si>
+    <t>North America/Seattle</t>
+  </si>
+  <si>
+    <t>Ozan Howell</t>
+  </si>
+  <si>
+    <t>Africa/Cairo</t>
+  </si>
+  <si>
+    <t>Sameera Walters</t>
+  </si>
+  <si>
+    <t>North America/Atlanta</t>
+  </si>
+  <si>
+    <t>Sonnie Barnes</t>
+  </si>
+  <si>
+    <t>North America/Tampa</t>
+  </si>
+  <si>
+    <t>Talhah Cruz</t>
+  </si>
+  <si>
+    <t>Africa/Cape Town</t>
+  </si>
+  <si>
+    <t>Template Courtesy of Microsoft.com</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>bonita.sykes@acmewidgets.com</t>
+  </si>
+  <si>
+    <t>cairo.pemberton@acmsiaidgets.com</t>
+  </si>
+  <si>
+    <t>chante.devlin@acmfricaidgets.com</t>
+  </si>
+  <si>
+    <t>erica.prince@acmuropeidgets.com</t>
+  </si>
+  <si>
+    <t>florrie.greenaway@acmmericaidgets.com</t>
+  </si>
+  <si>
+    <t>frederic.holman@acmuropeidgets.com</t>
+  </si>
+  <si>
+    <t>hafsa.ahmad@acmmericaidgets.com</t>
+  </si>
+  <si>
+    <t>harley.chase@acmuropeidgets.com</t>
+  </si>
+  <si>
+    <t>henri.mays@acmuropeidgets.com</t>
+  </si>
+  <si>
+    <t>jaheim.swan@acmsiaidgets.com</t>
+  </si>
+  <si>
+    <t>jeff.wong@acmmericaidgets.com</t>
+  </si>
+  <si>
+    <t>jesse.goulding@acmsiaidgets.com</t>
+  </si>
+  <si>
+    <t>katharine.handley@acmsiaidgets.com</t>
+  </si>
+  <si>
+    <t>kelsi.rich@acmmericaidgets.com</t>
+  </si>
+  <si>
+    <t>lorelai.austin@acmmericaidgets.com</t>
+  </si>
+  <si>
+    <t>maurice.powers@acmmericaidgets.com</t>
+  </si>
+  <si>
+    <t>ozan.howell@acmfricaidgets.com</t>
+  </si>
+  <si>
+    <t>sameera.walters@acmmericaidgets.com</t>
+  </si>
+  <si>
+    <t>sonnie.barnes@acmmericaidgets.com</t>
+  </si>
+  <si>
+    <t>talhah.cruz@acmapeidgets.com</t>
+  </si>
+  <si>
+    <t>Sub_Region</t>
+  </si>
+  <si>
+    <t>South America</t>
+  </si>
+  <si>
+    <t>New York</t>
+  </si>
+  <si>
+    <t>Manilla</t>
+  </si>
+  <si>
+    <t>Tangier</t>
+  </si>
+  <si>
+    <t>Lisbon</t>
+  </si>
+  <si>
+    <t>Chicago</t>
+  </si>
+  <si>
+    <t>London</t>
+  </si>
+  <si>
+    <t>Dallas</t>
+  </si>
+  <si>
+    <t>Paris</t>
+  </si>
+  <si>
+    <t>Seville</t>
+  </si>
+  <si>
+    <t>Santiago</t>
+  </si>
+  <si>
+    <t>Tokyo</t>
+  </si>
+  <si>
+    <t>Seoul</t>
+  </si>
+  <si>
+    <t>Boston</t>
+  </si>
+  <si>
+    <t>Caracas</t>
+  </si>
+  <si>
+    <t>Seattle</t>
+  </si>
+  <si>
+    <t>Cairo</t>
+  </si>
+  <si>
+    <t>Atlanta</t>
+  </si>
+  <si>
+    <t>Tampa</t>
+  </si>
+  <si>
+    <t>Cape Town</t>
   </si>
 </sst>
 </file>
@@ -278,7 +506,7 @@
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0"/>
     <numFmt numFmtId="165" formatCode="_-[$$-409]* #,##0_ ;_-[$$-409]* \-#,##0\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -297,6 +525,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -334,15 +570,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -363,14 +596,37 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -680,540 +936,860 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F1DC30F-03E5-4845-92EF-BCFF78A27010}">
-  <dimension ref="A1:T20"/>
+  <dimension ref="A1:Z26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.85546875" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" customWidth="1"/>
-    <col min="3" max="3" width="16" customWidth="1"/>
-    <col min="4" max="4" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.28515625" customWidth="1"/>
-    <col min="6" max="6" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="39" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.85546875" customWidth="1"/>
+    <col min="9" max="9" width="12.7109375" customWidth="1"/>
+    <col min="10" max="10" width="16" customWidth="1"/>
+    <col min="11" max="11" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.28515625" customWidth="1"/>
+    <col min="13" max="13" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="16.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="I1" t="s">
         <v>16</v>
       </c>
-      <c r="C1" t="s">
+      <c r="J1" t="s">
         <v>17</v>
       </c>
-      <c r="D1" t="s">
+      <c r="K1" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="L1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="M1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="N1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="O1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="P1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="J1" t="s">
+      <c r="R1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D2">
+        <v>104650</v>
+      </c>
+      <c r="E2">
+        <v>194875</v>
+      </c>
+      <c r="F2">
+        <v>213221</v>
+      </c>
+      <c r="G2">
+        <v>193992</v>
+      </c>
+      <c r="H2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L2">
+        <v>125319</v>
+      </c>
+      <c r="M2">
+        <v>65792</v>
+      </c>
+      <c r="N2">
+        <f>L2-M2</f>
+        <v>59527</v>
+      </c>
+      <c r="O2">
+        <v>4667</v>
+      </c>
+      <c r="P2">
+        <f>N2-O2</f>
+        <v>54860</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="S2">
+        <f>AVERAGE(L2:L20)</f>
+        <v>276986.5263157895</v>
+      </c>
+      <c r="Z2" s="2"/>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D3">
+        <v>150298</v>
+      </c>
+      <c r="E3">
+        <v>250131</v>
+      </c>
+      <c r="F3">
+        <v>262538</v>
+      </c>
+      <c r="G3">
+        <v>195802</v>
+      </c>
+      <c r="H3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K3" t="s">
+        <v>29</v>
+      </c>
+      <c r="L3">
+        <v>433924</v>
+      </c>
+      <c r="M3">
+        <v>101465</v>
+      </c>
+      <c r="O3">
+        <v>5068</v>
+      </c>
+      <c r="R3" t="s">
+        <v>30</v>
+      </c>
+      <c r="S3">
+        <f>MAX(L2:L20)</f>
+        <v>461214</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C4" t="s">
+        <v>114</v>
+      </c>
+      <c r="D4">
+        <v>413803</v>
+      </c>
+      <c r="E4">
+        <v>367772</v>
+      </c>
+      <c r="F4">
+        <v>284116</v>
+      </c>
+      <c r="G4">
+        <v>321618</v>
+      </c>
+      <c r="H4" t="s">
+        <v>31</v>
+      </c>
+      <c r="K4" t="s">
+        <v>32</v>
+      </c>
+      <c r="L4">
+        <v>135816</v>
+      </c>
+      <c r="M4">
+        <v>67388</v>
+      </c>
+      <c r="O4">
+        <v>5700</v>
+      </c>
+      <c r="R4" t="s">
+        <v>33</v>
+      </c>
+      <c r="S4">
+        <f>MIN(L2:L20)</f>
+        <v>125319</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B5" t="s">
+        <v>83</v>
+      </c>
+      <c r="C5" t="s">
+        <v>115</v>
+      </c>
+      <c r="D5">
         <v>0</v>
       </c>
-      <c r="K1" t="s">
-        <v>1</v>
-      </c>
-      <c r="L1" t="s">
-        <v>2</v>
-      </c>
-      <c r="M1" t="s">
-        <v>3</v>
-      </c>
-      <c r="N1" t="s">
-        <v>4</v>
-      </c>
-      <c r="O1" t="s">
-        <v>5</v>
-      </c>
-      <c r="P1" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>123453</v>
+      </c>
+      <c r="G5">
+        <v>287457</v>
+      </c>
+      <c r="H5" t="s">
+        <v>34</v>
+      </c>
+      <c r="K5" t="s">
         <v>26</v>
       </c>
-      <c r="E2">
-        <v>125319</v>
-      </c>
-      <c r="F2">
-        <v>65792</v>
-      </c>
-      <c r="G2">
-        <f>E2-F2</f>
-        <v>59527</v>
-      </c>
-      <c r="H2">
-        <v>4667</v>
-      </c>
-      <c r="I2">
-        <f>G2-H2</f>
-        <v>54860</v>
-      </c>
-      <c r="J2" t="s">
-        <v>6</v>
-      </c>
-      <c r="K2" t="s">
-        <v>7</v>
-      </c>
-      <c r="L2">
-        <v>275702</v>
-      </c>
-      <c r="M2">
-        <v>261290</v>
-      </c>
-      <c r="N2">
-        <v>332449</v>
-      </c>
-      <c r="O2">
-        <v>282904</v>
-      </c>
-      <c r="P2">
-        <v>1152345</v>
-      </c>
-      <c r="Q2" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="S2">
-        <f>AVERAGE(E2:E20)</f>
-        <v>276986.5263157895</v>
-      </c>
-      <c r="T2" s="4"/>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="L5">
+        <v>233255</v>
+      </c>
+      <c r="M5">
+        <v>83606</v>
+      </c>
+      <c r="O5">
+        <v>5089</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>84</v>
+      </c>
+      <c r="C6" t="s">
+        <v>116</v>
+      </c>
+      <c r="D6">
+        <v>231794</v>
+      </c>
+      <c r="E6">
+        <v>214229</v>
+      </c>
+      <c r="F6">
+        <v>302197</v>
+      </c>
+      <c r="G6">
+        <v>360759</v>
+      </c>
+      <c r="H6" t="s">
+        <v>35</v>
+      </c>
+      <c r="K6" t="s">
         <v>29</v>
       </c>
-      <c r="E3">
-        <v>433924</v>
-      </c>
-      <c r="F3">
-        <v>101465</v>
-      </c>
-      <c r="H3">
-        <v>5068</v>
-      </c>
-      <c r="J3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K3" t="s">
-        <v>9</v>
-      </c>
-      <c r="L3">
-        <v>222562</v>
-      </c>
-      <c r="M3">
-        <v>227580</v>
-      </c>
-      <c r="N3">
-        <v>291259</v>
-      </c>
-      <c r="O3">
-        <v>408463</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>30</v>
-      </c>
-      <c r="S3">
-        <f>MAX(E2:E20)</f>
+      <c r="L6">
+        <v>128691</v>
+      </c>
+      <c r="M6">
+        <v>67175</v>
+      </c>
+      <c r="O6">
+        <v>4956</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" t="s">
+        <v>85</v>
+      </c>
+      <c r="C7" t="s">
+        <v>117</v>
+      </c>
+      <c r="D7">
+        <v>406324</v>
+      </c>
+      <c r="E7">
+        <v>423569</v>
+      </c>
+      <c r="F7">
+        <v>160758</v>
+      </c>
+      <c r="G7">
+        <v>287874</v>
+      </c>
+      <c r="H7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K7" t="s">
+        <v>26</v>
+      </c>
+      <c r="L7">
+        <v>244913</v>
+      </c>
+      <c r="M7">
+        <v>89974</v>
+      </c>
+      <c r="O7">
+        <v>5062</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" t="s">
+        <v>86</v>
+      </c>
+      <c r="C8" t="s">
+        <v>118</v>
+      </c>
+      <c r="D8">
+        <v>364865</v>
+      </c>
+      <c r="E8">
+        <v>414727</v>
+      </c>
+      <c r="F8">
+        <v>250822</v>
+      </c>
+      <c r="G8">
+        <v>423552</v>
+      </c>
+      <c r="H8" t="s">
+        <v>37</v>
+      </c>
+      <c r="K8" t="s">
+        <v>29</v>
+      </c>
+      <c r="L8">
+        <v>392518</v>
+      </c>
+      <c r="M8">
+        <v>82675</v>
+      </c>
+      <c r="O8">
+        <v>6100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>87</v>
+      </c>
+      <c r="B9" t="s">
+        <v>88</v>
+      </c>
+      <c r="C9" t="s">
+        <v>119</v>
+      </c>
+      <c r="D9">
+        <v>224682</v>
+      </c>
+      <c r="E9">
+        <v>276694</v>
+      </c>
+      <c r="F9">
+        <v>261209</v>
+      </c>
+      <c r="G9">
+        <v>348653</v>
+      </c>
+      <c r="H9" t="s">
+        <v>38</v>
+      </c>
+      <c r="K9" t="s">
+        <v>29</v>
+      </c>
+      <c r="L9">
+        <v>331773</v>
+      </c>
+      <c r="M9">
+        <v>85288</v>
+      </c>
+      <c r="O9">
+        <v>5795</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>89</v>
+      </c>
+      <c r="B10" t="s">
+        <v>90</v>
+      </c>
+      <c r="C10" t="s">
+        <v>120</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>241172</v>
+      </c>
+      <c r="H10" t="s">
+        <v>39</v>
+      </c>
+      <c r="K10" t="s">
+        <v>32</v>
+      </c>
+      <c r="L10">
+        <v>244975</v>
+      </c>
+      <c r="M10">
+        <v>100834</v>
+      </c>
+      <c r="O10">
+        <v>5153</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>91</v>
+      </c>
+      <c r="B11" t="s">
+        <v>80</v>
+      </c>
+      <c r="C11" t="s">
+        <v>121</v>
+      </c>
+      <c r="D11">
+        <v>233555</v>
+      </c>
+      <c r="E11">
+        <v>121487</v>
+      </c>
+      <c r="F11">
+        <v>350045</v>
+      </c>
+      <c r="G11">
+        <v>145471</v>
+      </c>
+      <c r="H11" t="s">
+        <v>40</v>
+      </c>
+      <c r="K11" t="s">
+        <v>32</v>
+      </c>
+      <c r="L11">
+        <v>137925</v>
+      </c>
+      <c r="M11">
+        <v>104528</v>
+      </c>
+      <c r="O11">
+        <v>5673</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>92</v>
+      </c>
+      <c r="B12" t="s">
+        <v>93</v>
+      </c>
+      <c r="C12" t="s">
+        <v>122</v>
+      </c>
+      <c r="D12">
+        <v>267857</v>
+      </c>
+      <c r="E12">
+        <v>220092</v>
+      </c>
+      <c r="F12">
+        <v>114437</v>
+      </c>
+      <c r="G12">
+        <v>119241</v>
+      </c>
+      <c r="H12" t="s">
+        <v>41</v>
+      </c>
+      <c r="K12" t="s">
+        <v>26</v>
+      </c>
+      <c r="L12">
+        <v>207163</v>
+      </c>
+      <c r="M12">
+        <v>73705</v>
+      </c>
+      <c r="O12">
+        <v>5599</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" t="s">
+        <v>94</v>
+      </c>
+      <c r="C13" t="s">
+        <v>123</v>
+      </c>
+      <c r="D13">
+        <v>209008</v>
+      </c>
+      <c r="E13">
+        <v>284024</v>
+      </c>
+      <c r="F13">
+        <v>295343</v>
+      </c>
+      <c r="G13">
+        <v>303757</v>
+      </c>
+      <c r="H13" t="s">
+        <v>42</v>
+      </c>
+      <c r="K13" t="s">
+        <v>32</v>
+      </c>
+      <c r="L13">
+        <v>432326</v>
+      </c>
+      <c r="M13">
+        <v>79297</v>
+      </c>
+      <c r="O13">
+        <v>4872</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>95</v>
+      </c>
+      <c r="B14" t="s">
+        <v>96</v>
+      </c>
+      <c r="C14" t="s">
+        <v>124</v>
+      </c>
+      <c r="D14">
+        <v>157338</v>
+      </c>
+      <c r="E14">
+        <v>438173</v>
+      </c>
+      <c r="F14">
+        <v>416473</v>
+      </c>
+      <c r="G14">
+        <v>242891</v>
+      </c>
+      <c r="H14" t="s">
+        <v>43</v>
+      </c>
+      <c r="K14" t="s">
+        <v>32</v>
+      </c>
+      <c r="L14">
+        <v>177789</v>
+      </c>
+      <c r="M14">
+        <v>103757</v>
+      </c>
+      <c r="O14">
+        <v>5144</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" t="s">
+        <v>97</v>
+      </c>
+      <c r="C15" t="s">
+        <v>125</v>
+      </c>
+      <c r="D15">
+        <v>185351</v>
+      </c>
+      <c r="E15">
+        <v>172879</v>
+      </c>
+      <c r="F15">
+        <v>415627</v>
+      </c>
+      <c r="G15">
+        <v>224008</v>
+      </c>
+      <c r="H15" t="s">
+        <v>44</v>
+      </c>
+      <c r="K15" t="s">
+        <v>29</v>
+      </c>
+      <c r="L15">
+        <v>201945</v>
+      </c>
+      <c r="M15">
+        <v>83178</v>
+      </c>
+      <c r="O15">
+        <v>4734</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>98</v>
+      </c>
+      <c r="B16" t="s">
+        <v>99</v>
+      </c>
+      <c r="C16" t="s">
+        <v>126</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>101622</v>
+      </c>
+      <c r="F16">
+        <v>120465</v>
+      </c>
+      <c r="G16">
+        <v>262537</v>
+      </c>
+      <c r="H16" t="s">
+        <v>45</v>
+      </c>
+      <c r="K16" t="s">
+        <v>26</v>
+      </c>
+      <c r="L16">
         <v>461214</v>
       </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="M16">
+        <v>86688</v>
+      </c>
+      <c r="O16">
+        <v>6066</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>100</v>
+      </c>
+      <c r="B17" t="s">
+        <v>101</v>
+      </c>
+      <c r="C17" t="s">
+        <v>127</v>
+      </c>
+      <c r="D17">
+        <v>148716</v>
+      </c>
+      <c r="E17">
+        <v>440788</v>
+      </c>
+      <c r="F17">
+        <v>118717</v>
+      </c>
+      <c r="G17">
+        <v>295393</v>
+      </c>
+      <c r="H17" t="s">
+        <v>46</v>
+      </c>
+      <c r="K17" t="s">
         <v>32</v>
       </c>
-      <c r="E4">
-        <v>135816</v>
-      </c>
-      <c r="F4">
-        <v>67388</v>
-      </c>
-      <c r="H4">
-        <v>5700</v>
-      </c>
-      <c r="J4" t="s">
-        <v>10</v>
-      </c>
-      <c r="K4" t="s">
-        <v>11</v>
-      </c>
-      <c r="L4">
-        <v>211070</v>
-      </c>
-      <c r="M4">
-        <v>203426</v>
-      </c>
-      <c r="N4">
-        <v>194457</v>
-      </c>
-      <c r="O4">
-        <v>358982</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>33</v>
-      </c>
-      <c r="S4">
-        <f>MIN(E2:E20)</f>
-        <v>125319</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E5">
-        <v>233255</v>
-      </c>
-      <c r="F5">
-        <v>83606</v>
-      </c>
-      <c r="H5">
-        <v>5089</v>
-      </c>
-      <c r="J5" t="s">
-        <v>12</v>
-      </c>
-      <c r="K5" t="s">
-        <v>9</v>
-      </c>
-      <c r="L5">
-        <v>163774</v>
-      </c>
-      <c r="M5">
-        <v>390208</v>
-      </c>
-      <c r="N5">
-        <v>315982</v>
-      </c>
-      <c r="O5">
-        <v>347702</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="L17">
+        <v>440462</v>
+      </c>
+      <c r="M17">
+        <v>81912</v>
+      </c>
+      <c r="O17">
+        <v>4842</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>102</v>
+      </c>
+      <c r="B18" t="s">
+        <v>103</v>
+      </c>
+      <c r="C18" t="s">
+        <v>128</v>
+      </c>
+      <c r="D18">
+        <v>120062</v>
+      </c>
+      <c r="E18">
+        <v>402641</v>
+      </c>
+      <c r="F18">
+        <v>426099</v>
+      </c>
+      <c r="G18">
+        <v>442987</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="K18" t="s">
+        <v>32</v>
+      </c>
+      <c r="L18">
+        <v>407339</v>
+      </c>
+      <c r="M18">
+        <v>88286</v>
+      </c>
+      <c r="O18">
+        <v>4604</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>104</v>
+      </c>
+      <c r="B19" t="s">
+        <v>105</v>
+      </c>
+      <c r="C19" t="s">
+        <v>129</v>
+      </c>
+      <c r="D19">
+        <v>146168</v>
+      </c>
+      <c r="E19">
+        <v>237376</v>
+      </c>
+      <c r="F19">
+        <v>344725</v>
+      </c>
+      <c r="G19">
+        <v>243717</v>
+      </c>
+      <c r="H19" t="s">
+        <v>48</v>
+      </c>
+      <c r="K19" t="s">
+        <v>32</v>
+      </c>
+      <c r="L19">
+        <v>376263</v>
+      </c>
+      <c r="M19">
+        <v>92698</v>
+      </c>
+      <c r="O19">
+        <v>5195</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>106</v>
+      </c>
+      <c r="B20" t="s">
+        <v>107</v>
+      </c>
+      <c r="C20" t="s">
+        <v>130</v>
+      </c>
+      <c r="D20">
+        <v>354140</v>
+      </c>
+      <c r="E20">
+        <v>193108</v>
+      </c>
+      <c r="F20">
+        <v>248584</v>
+      </c>
+      <c r="G20">
+        <v>233292</v>
+      </c>
+      <c r="H20" t="s">
+        <v>49</v>
+      </c>
+      <c r="K20" t="s">
         <v>29</v>
       </c>
-      <c r="E6">
-        <v>128691</v>
-      </c>
-      <c r="F6">
-        <v>67175</v>
-      </c>
-      <c r="H6">
-        <v>4956</v>
-      </c>
-      <c r="J6" t="s">
-        <v>13</v>
-      </c>
-      <c r="K6" t="s">
-        <v>14</v>
-      </c>
-      <c r="L6">
-        <v>344044</v>
-      </c>
-      <c r="M6">
-        <v>400640</v>
-      </c>
-      <c r="N6">
-        <v>180535</v>
-      </c>
-      <c r="O6">
-        <v>372475</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>36</v>
-      </c>
-      <c r="D7" t="s">
-        <v>26</v>
-      </c>
-      <c r="E7">
-        <v>244913</v>
-      </c>
-      <c r="F7">
-        <v>89974</v>
-      </c>
-      <c r="H7">
-        <v>5062</v>
-      </c>
-      <c r="J7" t="s">
-        <v>15</v>
-      </c>
-      <c r="K7" t="s">
-        <v>9</v>
-      </c>
-      <c r="L7">
-        <v>324035</v>
-      </c>
-      <c r="M7">
-        <v>370979</v>
-      </c>
-      <c r="N7">
-        <v>356277</v>
-      </c>
-      <c r="O7">
-        <v>231349</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>37</v>
-      </c>
-      <c r="D8" t="s">
-        <v>29</v>
-      </c>
-      <c r="E8">
-        <v>392518</v>
-      </c>
-      <c r="F8">
-        <v>82675</v>
-      </c>
-      <c r="H8">
-        <v>6100</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>38</v>
-      </c>
-      <c r="D9" t="s">
-        <v>29</v>
-      </c>
-      <c r="E9">
-        <v>331773</v>
-      </c>
-      <c r="F9">
-        <v>85288</v>
-      </c>
-      <c r="H9">
-        <v>5795</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>39</v>
-      </c>
-      <c r="D10" t="s">
-        <v>32</v>
-      </c>
-      <c r="E10">
-        <v>244975</v>
-      </c>
-      <c r="F10">
-        <v>100834</v>
-      </c>
-      <c r="H10">
-        <v>5153</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>40</v>
-      </c>
-      <c r="D11" t="s">
-        <v>32</v>
-      </c>
-      <c r="E11">
-        <v>137925</v>
-      </c>
-      <c r="F11">
-        <v>104528</v>
-      </c>
-      <c r="H11">
-        <v>5673</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>41</v>
-      </c>
-      <c r="D12" t="s">
-        <v>26</v>
-      </c>
-      <c r="E12">
-        <v>207163</v>
-      </c>
-      <c r="F12">
-        <v>73705</v>
-      </c>
-      <c r="H12">
-        <v>5599</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>42</v>
-      </c>
-      <c r="D13" t="s">
-        <v>32</v>
-      </c>
-      <c r="E13">
-        <v>432326</v>
-      </c>
-      <c r="F13">
-        <v>79297</v>
-      </c>
-      <c r="H13">
-        <v>4872</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>43</v>
-      </c>
-      <c r="D14" t="s">
-        <v>32</v>
-      </c>
-      <c r="E14">
-        <v>177789</v>
-      </c>
-      <c r="F14">
-        <v>103757</v>
-      </c>
-      <c r="H14">
-        <v>5144</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>44</v>
-      </c>
-      <c r="D15" t="s">
-        <v>29</v>
-      </c>
-      <c r="E15">
-        <v>201945</v>
-      </c>
-      <c r="F15">
-        <v>83178</v>
-      </c>
-      <c r="H15">
-        <v>4734</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>45</v>
-      </c>
-      <c r="D16" t="s">
-        <v>26</v>
-      </c>
-      <c r="E16">
-        <v>461214</v>
-      </c>
-      <c r="F16">
-        <v>86688</v>
-      </c>
-      <c r="H16">
-        <v>6066</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>46</v>
-      </c>
-      <c r="D17" t="s">
-        <v>32</v>
-      </c>
-      <c r="E17">
-        <v>440462</v>
-      </c>
-      <c r="F17">
-        <v>81912</v>
-      </c>
-      <c r="H17">
-        <v>4842</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>47</v>
-      </c>
-      <c r="D18" t="s">
-        <v>32</v>
-      </c>
-      <c r="E18">
-        <v>407339</v>
-      </c>
-      <c r="F18">
-        <v>88286</v>
-      </c>
-      <c r="H18">
-        <v>4604</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>48</v>
-      </c>
-      <c r="D19" t="s">
-        <v>32</v>
-      </c>
-      <c r="E19">
-        <v>376263</v>
-      </c>
-      <c r="F19">
-        <v>92698</v>
-      </c>
-      <c r="H19">
-        <v>5195</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>49</v>
-      </c>
-      <c r="D20" t="s">
-        <v>29</v>
-      </c>
-      <c r="E20">
+      <c r="L20">
         <v>149134</v>
       </c>
-      <c r="F20">
+      <c r="M20">
         <v>87513</v>
       </c>
-      <c r="H20">
+      <c r="O20">
         <v>5168</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>108</v>
+      </c>
+      <c r="B21" t="s">
+        <v>109</v>
+      </c>
+      <c r="C21" t="s">
+        <v>131</v>
+      </c>
+      <c r="D21">
+        <v>438135</v>
+      </c>
+      <c r="E21">
+        <v>303683</v>
+      </c>
+      <c r="F21">
+        <v>446278</v>
+      </c>
+      <c r="G21">
+        <v>262490</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -1223,188 +1799,665 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB2969A0-E328-41DF-8FAC-1B10B2F7DEC8}">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.85546875" customWidth="1"/>
-    <col min="2" max="2" width="15.140625" customWidth="1"/>
-    <col min="3" max="6" width="10.42578125" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" customWidth="1"/>
+    <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="39" bestFit="1" customWidth="1"/>
+    <col min="5" max="8" width="10.42578125" customWidth="1"/>
+    <col min="9" max="9" width="12.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:9" s="11" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="E1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="F1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="G1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="H1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="I1" s="7" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>134</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="E2" s="1">
+        <v>104650</v>
+      </c>
+      <c r="F2" s="1">
+        <v>194875</v>
+      </c>
+      <c r="G2" s="1">
+        <v>213221</v>
+      </c>
+      <c r="H2" s="1">
+        <v>193992</v>
+      </c>
+      <c r="I2" s="1">
+        <f>SUM(E2:H2)</f>
+        <v>706738</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" t="s">
+        <v>135</v>
+      </c>
+      <c r="D3" t="s">
+        <v>113</v>
+      </c>
+      <c r="E3" s="1">
+        <v>150298</v>
+      </c>
+      <c r="F3" s="1">
+        <v>250131</v>
+      </c>
+      <c r="G3" s="1">
+        <v>262538</v>
+      </c>
+      <c r="H3" s="1">
+        <v>195802</v>
+      </c>
+      <c r="I3" s="1">
+        <f t="shared" ref="I3:I21" si="0">SUM(E3:H3)</f>
+        <v>858769</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B4" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="3">
-        <v>275702</v>
-      </c>
-      <c r="D2" s="3">
-        <v>261290</v>
-      </c>
-      <c r="E2" s="3">
-        <v>332449</v>
-      </c>
-      <c r="F2" s="3">
-        <v>282904</v>
-      </c>
-      <c r="G2" s="3">
-        <f>SUM(C2:F2)</f>
-        <v>1152345</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="C4" t="s">
+        <v>136</v>
+      </c>
+      <c r="D4" t="s">
+        <v>114</v>
+      </c>
+      <c r="E4" s="1">
+        <v>413803</v>
+      </c>
+      <c r="F4" s="1">
+        <v>367772</v>
+      </c>
+      <c r="G4" s="1">
+        <v>284116</v>
+      </c>
+      <c r="H4" s="1">
+        <v>321618</v>
+      </c>
+      <c r="I4" s="1">
+        <f t="shared" si="0"/>
+        <v>1387309</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
+        <v>137</v>
+      </c>
+      <c r="D5" t="s">
+        <v>115</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0</v>
+      </c>
+      <c r="G5" s="1">
+        <v>123453</v>
+      </c>
+      <c r="H5" s="1">
+        <v>287457</v>
+      </c>
+      <c r="I5" s="1">
+        <f t="shared" si="0"/>
+        <v>410910</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>8</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B6" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="3">
-        <v>222562</v>
-      </c>
-      <c r="D3" s="3">
-        <v>227580</v>
-      </c>
-      <c r="E3" s="3">
-        <v>291259</v>
-      </c>
-      <c r="F3" s="3">
-        <v>408463</v>
-      </c>
-      <c r="G3" s="3">
-        <f t="shared" ref="G3:G7" si="0">SUM(C3:F3)</f>
-        <v>1149864</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="C6" t="s">
+        <v>138</v>
+      </c>
+      <c r="D6" t="s">
+        <v>116</v>
+      </c>
+      <c r="E6" s="1">
+        <v>231794</v>
+      </c>
+      <c r="F6" s="1">
+        <v>214229</v>
+      </c>
+      <c r="G6" s="1">
+        <v>302197</v>
+      </c>
+      <c r="H6" s="1">
+        <v>360759</v>
+      </c>
+      <c r="I6" s="1">
+        <f t="shared" si="0"/>
+        <v>1108979</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>10</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B7" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="3">
-        <v>211070</v>
-      </c>
-      <c r="D4" s="3">
-        <v>203426</v>
-      </c>
-      <c r="E4" s="3">
-        <v>194457</v>
-      </c>
-      <c r="F4" s="3">
-        <v>358982</v>
-      </c>
-      <c r="G4" s="3">
-        <f t="shared" si="0"/>
-        <v>967935</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="C7" t="s">
+        <v>139</v>
+      </c>
+      <c r="D7" t="s">
+        <v>117</v>
+      </c>
+      <c r="E7" s="1">
+        <v>406324</v>
+      </c>
+      <c r="F7" s="1">
+        <v>423569</v>
+      </c>
+      <c r="G7" s="1">
+        <v>160758</v>
+      </c>
+      <c r="H7" s="1">
+        <v>287874</v>
+      </c>
+      <c r="I7" s="1">
+        <f t="shared" si="0"/>
+        <v>1278525</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>12</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B8" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="3">
-        <v>163774</v>
-      </c>
-      <c r="D5" s="3">
-        <v>390208</v>
-      </c>
-      <c r="E5" s="3">
-        <v>315982</v>
-      </c>
-      <c r="F5" s="3">
-        <v>347702</v>
-      </c>
-      <c r="G5" s="3">
-        <f t="shared" si="0"/>
-        <v>1217666</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="C8" t="s">
+        <v>140</v>
+      </c>
+      <c r="D8" t="s">
+        <v>118</v>
+      </c>
+      <c r="E8">
+        <v>364865</v>
+      </c>
+      <c r="F8">
+        <v>414727</v>
+      </c>
+      <c r="G8">
+        <v>250822</v>
+      </c>
+      <c r="H8">
+        <v>423552</v>
+      </c>
+      <c r="I8" s="1">
+        <f t="shared" si="0"/>
+        <v>1453966</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>87</v>
+      </c>
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" t="s">
+        <v>141</v>
+      </c>
+      <c r="D9" t="s">
+        <v>119</v>
+      </c>
+      <c r="E9">
+        <v>224682</v>
+      </c>
+      <c r="F9">
+        <v>276694</v>
+      </c>
+      <c r="G9">
+        <v>261209</v>
+      </c>
+      <c r="H9">
+        <v>348653</v>
+      </c>
+      <c r="I9" s="1">
+        <f t="shared" si="0"/>
+        <v>1111238</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>89</v>
+      </c>
+      <c r="B10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" t="s">
+        <v>142</v>
+      </c>
+      <c r="D10" t="s">
+        <v>120</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>241172</v>
+      </c>
+      <c r="I10" s="1">
+        <f t="shared" si="0"/>
+        <v>241172</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>91</v>
+      </c>
+      <c r="B11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" t="s">
+        <v>135</v>
+      </c>
+      <c r="D11" t="s">
+        <v>121</v>
+      </c>
+      <c r="E11">
+        <v>233555</v>
+      </c>
+      <c r="F11">
+        <v>121487</v>
+      </c>
+      <c r="G11">
+        <v>350045</v>
+      </c>
+      <c r="H11">
+        <v>145471</v>
+      </c>
+      <c r="I11" s="1">
+        <f t="shared" si="0"/>
+        <v>850558</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>92</v>
+      </c>
+      <c r="B12" t="s">
+        <v>133</v>
+      </c>
+      <c r="C12" t="s">
+        <v>143</v>
+      </c>
+      <c r="D12" t="s">
+        <v>122</v>
+      </c>
+      <c r="E12">
+        <v>267857</v>
+      </c>
+      <c r="F12">
+        <v>220092</v>
+      </c>
+      <c r="G12">
+        <v>114437</v>
+      </c>
+      <c r="H12">
+        <v>119241</v>
+      </c>
+      <c r="I12" s="1">
+        <f t="shared" si="0"/>
+        <v>721627</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>13</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B13" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="3">
-        <v>344044</v>
-      </c>
-      <c r="D6" s="3">
-        <v>400640</v>
-      </c>
-      <c r="E6" s="3">
-        <v>180535</v>
-      </c>
-      <c r="F6" s="3">
-        <v>372475</v>
-      </c>
-      <c r="G6" s="3">
-        <f t="shared" si="0"/>
-        <v>1297694</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="C13" t="s">
+        <v>144</v>
+      </c>
+      <c r="D13" t="s">
+        <v>123</v>
+      </c>
+      <c r="E13">
+        <v>209008</v>
+      </c>
+      <c r="F13">
+        <v>284024</v>
+      </c>
+      <c r="G13">
+        <v>295343</v>
+      </c>
+      <c r="H13">
+        <v>303757</v>
+      </c>
+      <c r="I13" s="1">
+        <f t="shared" si="0"/>
+        <v>1092132</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>95</v>
+      </c>
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" t="s">
+        <v>145</v>
+      </c>
+      <c r="D14" t="s">
+        <v>124</v>
+      </c>
+      <c r="E14">
+        <v>157338</v>
+      </c>
+      <c r="F14">
+        <v>438173</v>
+      </c>
+      <c r="G14">
+        <v>416473</v>
+      </c>
+      <c r="H14">
+        <v>242891</v>
+      </c>
+      <c r="I14" s="1">
+        <f t="shared" si="0"/>
+        <v>1254875</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>15</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B15" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="3">
-        <v>324035</v>
-      </c>
-      <c r="D7" s="3">
-        <v>370979</v>
-      </c>
-      <c r="E7" s="3">
-        <v>356277</v>
-      </c>
-      <c r="F7" s="3">
-        <v>231349</v>
-      </c>
-      <c r="G7" s="3">
-        <f t="shared" si="0"/>
-        <v>1282640</v>
-      </c>
+      <c r="C15" t="s">
+        <v>146</v>
+      </c>
+      <c r="D15" t="s">
+        <v>125</v>
+      </c>
+      <c r="E15">
+        <v>185351</v>
+      </c>
+      <c r="F15">
+        <v>172879</v>
+      </c>
+      <c r="G15">
+        <v>415627</v>
+      </c>
+      <c r="H15">
+        <v>224008</v>
+      </c>
+      <c r="I15" s="1">
+        <f t="shared" si="0"/>
+        <v>997865</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>98</v>
+      </c>
+      <c r="B16" t="s">
+        <v>133</v>
+      </c>
+      <c r="C16" t="s">
+        <v>147</v>
+      </c>
+      <c r="D16" t="s">
+        <v>126</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>101622</v>
+      </c>
+      <c r="G16">
+        <v>120465</v>
+      </c>
+      <c r="H16">
+        <v>262537</v>
+      </c>
+      <c r="I16" s="1">
+        <f t="shared" si="0"/>
+        <v>484624</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>100</v>
+      </c>
+      <c r="B17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" t="s">
+        <v>148</v>
+      </c>
+      <c r="D17" t="s">
+        <v>127</v>
+      </c>
+      <c r="E17">
+        <v>148716</v>
+      </c>
+      <c r="F17">
+        <v>440788</v>
+      </c>
+      <c r="G17">
+        <v>118717</v>
+      </c>
+      <c r="H17">
+        <v>295393</v>
+      </c>
+      <c r="I17" s="1">
+        <f t="shared" si="0"/>
+        <v>1003614</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>102</v>
+      </c>
+      <c r="B18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" t="s">
+        <v>149</v>
+      </c>
+      <c r="D18" t="s">
+        <v>128</v>
+      </c>
+      <c r="E18">
+        <v>120062</v>
+      </c>
+      <c r="F18">
+        <v>402641</v>
+      </c>
+      <c r="G18">
+        <v>426099</v>
+      </c>
+      <c r="H18">
+        <v>442987</v>
+      </c>
+      <c r="I18" s="1">
+        <f t="shared" si="0"/>
+        <v>1391789</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>104</v>
+      </c>
+      <c r="B19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" t="s">
+        <v>150</v>
+      </c>
+      <c r="D19" t="s">
+        <v>129</v>
+      </c>
+      <c r="E19">
+        <v>146168</v>
+      </c>
+      <c r="F19">
+        <v>237376</v>
+      </c>
+      <c r="G19">
+        <v>344725</v>
+      </c>
+      <c r="H19">
+        <v>243717</v>
+      </c>
+      <c r="I19" s="1">
+        <f t="shared" si="0"/>
+        <v>971986</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>106</v>
+      </c>
+      <c r="B20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" t="s">
+        <v>151</v>
+      </c>
+      <c r="D20" t="s">
+        <v>130</v>
+      </c>
+      <c r="E20">
+        <v>354140</v>
+      </c>
+      <c r="F20">
+        <v>193108</v>
+      </c>
+      <c r="G20">
+        <v>248584</v>
+      </c>
+      <c r="H20">
+        <v>233292</v>
+      </c>
+      <c r="I20" s="1">
+        <f t="shared" si="0"/>
+        <v>1029124</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>108</v>
+      </c>
+      <c r="B21" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" t="s">
+        <v>152</v>
+      </c>
+      <c r="D21" t="s">
+        <v>131</v>
+      </c>
+      <c r="E21">
+        <v>438135</v>
+      </c>
+      <c r="F21">
+        <v>303683</v>
+      </c>
+      <c r="G21">
+        <v>446278</v>
+      </c>
+      <c r="H21">
+        <v>262490</v>
+      </c>
+      <c r="I21" s="1">
+        <f t="shared" si="0"/>
+        <v>1450586</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="B26" s="10"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A26" r:id="rId1" xr:uid="{BD4FBBA9-9F72-43C3-B720-2072E44ADD72}"/>
+    <hyperlink ref="D2" r:id="rId2" xr:uid="{4C8EBF90-4687-4BFE-9EA0-174E77BC0EE7}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1414,582 +2467,583 @@
   <dimension ref="A1:S20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.140625" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8" style="10" customWidth="1"/>
-    <col min="3" max="3" width="11.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8" style="8" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" style="8" bestFit="1" customWidth="1"/>
     <col min="4" max="8" width="15.7109375" customWidth="1"/>
     <col min="9" max="9" width="24.140625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="16.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="8" customFormat="1" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:19" s="6" customFormat="1" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="6"/>
+      <c r="I1" s="4"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D2" s="3">
         <v>125319</v>
       </c>
-      <c r="E2" s="5">
+      <c r="E2" s="3">
         <v>65792</v>
       </c>
-      <c r="F2" s="5">
+      <c r="F2" s="3">
         <f>D2-E2</f>
         <v>59527</v>
       </c>
-      <c r="G2" s="5">
+      <c r="G2" s="3">
         <v>4667</v>
       </c>
-      <c r="H2" s="5">
+      <c r="H2" s="3">
         <f>F2-G2</f>
         <v>54860</v>
       </c>
-      <c r="M2" s="4"/>
-      <c r="O2" s="4"/>
-      <c r="P2" s="4"/>
-      <c r="Q2" s="4"/>
-      <c r="R2" s="4"/>
-      <c r="S2" s="4"/>
+      <c r="M2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="3">
         <v>433924</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="3">
         <v>101465</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F3" s="3">
         <f t="shared" ref="F3:F20" si="0">D3-E3</f>
         <v>332459</v>
       </c>
-      <c r="G3" s="5">
+      <c r="G3" s="3">
         <v>5068</v>
       </c>
-      <c r="H3" s="5">
+      <c r="H3" s="3">
         <f t="shared" ref="H3:H20" si="1">F3-G3</f>
         <v>327391</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="3">
         <v>135816</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="3">
         <v>67388</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F4" s="3">
         <f t="shared" si="0"/>
         <v>68428</v>
       </c>
-      <c r="G4" s="5">
+      <c r="G4" s="3">
         <v>5700</v>
       </c>
-      <c r="H4" s="5">
+      <c r="H4" s="3">
         <f t="shared" si="1"/>
         <v>62728</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="3">
         <v>233255</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="3">
         <v>83606</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F5" s="3">
         <f t="shared" si="0"/>
         <v>149649</v>
       </c>
-      <c r="G5" s="5">
+      <c r="G5" s="3">
         <v>5089</v>
       </c>
-      <c r="H5" s="5">
+      <c r="H5" s="3">
         <f t="shared" si="1"/>
         <v>144560</v>
       </c>
-      <c r="J5" s="4"/>
+      <c r="J5" s="2"/>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="3">
         <v>128691</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="3">
         <v>67175</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F6" s="3">
         <f t="shared" si="0"/>
         <v>61516</v>
       </c>
-      <c r="G6" s="5">
+      <c r="G6" s="3">
         <v>4956</v>
       </c>
-      <c r="H6" s="5">
+      <c r="H6" s="3">
         <f t="shared" si="1"/>
         <v>56560</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="3">
         <v>244913</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="3">
         <v>89974</v>
       </c>
-      <c r="F7" s="5">
+      <c r="F7" s="3">
         <f t="shared" si="0"/>
         <v>154939</v>
       </c>
-      <c r="G7" s="5">
+      <c r="G7" s="3">
         <v>5062</v>
       </c>
-      <c r="H7" s="5">
+      <c r="H7" s="3">
         <f t="shared" si="1"/>
         <v>149877</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="3">
         <v>392518</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E8" s="3">
         <v>82675</v>
       </c>
-      <c r="F8" s="5">
+      <c r="F8" s="3">
         <f t="shared" si="0"/>
         <v>309843</v>
       </c>
-      <c r="G8" s="5">
+      <c r="G8" s="3">
         <v>6100</v>
       </c>
-      <c r="H8" s="5">
+      <c r="H8" s="3">
         <f t="shared" si="1"/>
         <v>303743</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="3">
         <v>331773</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E9" s="3">
         <v>85288</v>
       </c>
-      <c r="F9" s="5">
+      <c r="F9" s="3">
         <f t="shared" si="0"/>
         <v>246485</v>
       </c>
-      <c r="G9" s="5">
+      <c r="G9" s="3">
         <v>5795</v>
       </c>
-      <c r="H9" s="5">
+      <c r="H9" s="3">
         <f t="shared" si="1"/>
         <v>240690</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D10" s="3">
         <v>244975</v>
       </c>
-      <c r="E10" s="5">
+      <c r="E10" s="3">
         <v>100834</v>
       </c>
-      <c r="F10" s="5">
+      <c r="F10" s="3">
         <f t="shared" si="0"/>
         <v>144141</v>
       </c>
-      <c r="G10" s="5">
+      <c r="G10" s="3">
         <v>5153</v>
       </c>
-      <c r="H10" s="5">
+      <c r="H10" s="3">
         <f t="shared" si="1"/>
         <v>138988</v>
       </c>
-      <c r="J10" s="7"/>
+      <c r="J10" s="5"/>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D11" s="3">
         <v>137925</v>
       </c>
-      <c r="E11" s="5">
+      <c r="E11" s="3">
         <v>104528</v>
       </c>
-      <c r="F11" s="5">
+      <c r="F11" s="3">
         <f t="shared" si="0"/>
         <v>33397</v>
       </c>
-      <c r="G11" s="5">
+      <c r="G11" s="3">
         <v>5673</v>
       </c>
-      <c r="H11" s="5">
+      <c r="H11" s="3">
         <f t="shared" si="1"/>
         <v>27724</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C12" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="D12" s="5">
+      <c r="D12" s="3">
         <v>207163</v>
       </c>
-      <c r="E12" s="5">
+      <c r="E12" s="3">
         <v>73705</v>
       </c>
-      <c r="F12" s="5">
+      <c r="F12" s="3">
         <f t="shared" si="0"/>
         <v>133458</v>
       </c>
-      <c r="G12" s="5">
+      <c r="G12" s="3">
         <v>5599</v>
       </c>
-      <c r="H12" s="5">
+      <c r="H12" s="3">
         <f t="shared" si="1"/>
         <v>127859</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="C13" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="D13" s="5">
+      <c r="D13" s="3">
         <v>432326</v>
       </c>
-      <c r="E13" s="5">
+      <c r="E13" s="3">
         <v>79297</v>
       </c>
-      <c r="F13" s="5">
+      <c r="F13" s="3">
         <f t="shared" si="0"/>
         <v>353029</v>
       </c>
-      <c r="G13" s="5">
+      <c r="G13" s="3">
         <v>4872</v>
       </c>
-      <c r="H13" s="5">
+      <c r="H13" s="3">
         <f t="shared" si="1"/>
         <v>348157</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A14" s="10" t="s">
+      <c r="A14" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="C14" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="D14" s="5">
+      <c r="D14" s="3">
         <v>177789</v>
       </c>
-      <c r="E14" s="5">
+      <c r="E14" s="3">
         <v>103757</v>
       </c>
-      <c r="F14" s="5">
+      <c r="F14" s="3">
         <f t="shared" si="0"/>
         <v>74032</v>
       </c>
-      <c r="G14" s="5">
+      <c r="G14" s="3">
         <v>5144</v>
       </c>
-      <c r="H14" s="5">
+      <c r="H14" s="3">
         <f t="shared" si="1"/>
         <v>68888</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A15" s="10" t="s">
+      <c r="A15" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="B15" s="10" t="s">
+      <c r="B15" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="C15" s="10" t="s">
+      <c r="C15" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="D15" s="5">
+      <c r="D15" s="3">
         <v>201945</v>
       </c>
-      <c r="E15" s="5">
+      <c r="E15" s="3">
         <v>83178</v>
       </c>
-      <c r="F15" s="5">
+      <c r="F15" s="3">
         <f t="shared" si="0"/>
         <v>118767</v>
       </c>
-      <c r="G15" s="5">
+      <c r="G15" s="3">
         <v>4734</v>
       </c>
-      <c r="H15" s="5">
+      <c r="H15" s="3">
         <f t="shared" si="1"/>
         <v>114033</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A16" s="10" t="s">
+      <c r="A16" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="B16" s="10" t="s">
+      <c r="B16" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="C16" s="10" t="s">
+      <c r="C16" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="D16" s="5">
+      <c r="D16" s="3">
         <v>461214</v>
       </c>
-      <c r="E16" s="5">
+      <c r="E16" s="3">
         <v>86688</v>
       </c>
-      <c r="F16" s="5">
+      <c r="F16" s="3">
         <f t="shared" si="0"/>
         <v>374526</v>
       </c>
-      <c r="G16" s="5">
+      <c r="G16" s="3">
         <v>6066</v>
       </c>
-      <c r="H16" s="5">
+      <c r="H16" s="3">
         <f t="shared" si="1"/>
         <v>368460</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="10" t="s">
+      <c r="A17" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="B17" s="10" t="s">
+      <c r="B17" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="C17" s="10" t="s">
+      <c r="C17" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="D17" s="5">
+      <c r="D17" s="3">
         <v>440462</v>
       </c>
-      <c r="E17" s="5">
+      <c r="E17" s="3">
         <v>81912</v>
       </c>
-      <c r="F17" s="5">
+      <c r="F17" s="3">
         <f t="shared" si="0"/>
         <v>358550</v>
       </c>
-      <c r="G17" s="5">
+      <c r="G17" s="3">
         <v>4842</v>
       </c>
-      <c r="H17" s="5">
+      <c r="H17" s="3">
         <f t="shared" si="1"/>
         <v>353708</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="10" t="s">
+      <c r="A18" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="B18" s="10" t="s">
+      <c r="B18" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="C18" s="10" t="s">
+      <c r="C18" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="D18" s="5">
+      <c r="D18" s="3">
         <v>407339</v>
       </c>
-      <c r="E18" s="5">
+      <c r="E18" s="3">
         <v>88286</v>
       </c>
-      <c r="F18" s="5">
+      <c r="F18" s="3">
         <f t="shared" si="0"/>
         <v>319053</v>
       </c>
-      <c r="G18" s="5">
+      <c r="G18" s="3">
         <v>4604</v>
       </c>
-      <c r="H18" s="5">
+      <c r="H18" s="3">
         <f t="shared" si="1"/>
         <v>314449</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="10" t="s">
+      <c r="A19" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="B19" s="10" t="s">
+      <c r="B19" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="C19" s="10" t="s">
+      <c r="C19" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="D19" s="5">
+      <c r="D19" s="3">
         <v>376263</v>
       </c>
-      <c r="E19" s="5">
+      <c r="E19" s="3">
         <v>92698</v>
       </c>
-      <c r="F19" s="5">
+      <c r="F19" s="3">
         <f t="shared" si="0"/>
         <v>283565</v>
       </c>
-      <c r="G19" s="5">
+      <c r="G19" s="3">
         <v>5195</v>
       </c>
-      <c r="H19" s="5">
+      <c r="H19" s="3">
         <f t="shared" si="1"/>
         <v>278370</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="10" t="s">
+      <c r="A20" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="B20" s="10" t="s">
+      <c r="B20" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="C20" s="10" t="s">
+      <c r="C20" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="D20" s="5">
+      <c r="D20" s="3">
         <v>149134</v>
       </c>
-      <c r="E20" s="5">
+      <c r="E20" s="3">
         <v>87513</v>
       </c>
-      <c r="F20" s="5">
+      <c r="F20" s="3">
         <f t="shared" si="0"/>
         <v>61621</v>
       </c>
-      <c r="G20" s="5">
+      <c r="G20" s="3">
         <v>5168</v>
       </c>
-      <c r="H20" s="5">
+      <c r="H20" s="3">
         <f t="shared" si="1"/>
         <v>56453</v>
       </c>
@@ -2003,7 +3057,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A4F40AB-1F15-4573-AC0C-90024DE33C6E}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
@@ -2014,16 +3068,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="11"/>
+      <c r="B1" s="9"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2" s="3">
         <v>276986.5263157895</v>
       </c>
     </row>
@@ -2031,7 +3085,7 @@
       <c r="A3" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="3">
         <v>461214</v>
       </c>
     </row>
@@ -2039,7 +3093,7 @@
       <c r="A4" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="3">
         <v>125319</v>
       </c>
     </row>
@@ -2052,6 +3106,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000E1CD5F422E388419BB522F4435A2991" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="e5c10cafc2c37c7f469fd87ac61c85e7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="e126d1a7-de2c-4ae3-80af-dc9ec7d9558b" xmlns:ns3="16c367a0-1ebe-4645-bffe-e50f3117a967" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="64cf9e92a51322bbdec604bdb87428eb" ns2:_="" ns3:_="">
     <xsd:import namespace="e126d1a7-de2c-4ae3-80af-dc9ec7d9558b"/>
@@ -2268,22 +3337,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0E5A85AC-2CBD-412F-82B1-8F6832D6B804}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{16C85F02-9775-4D6C-AF6B-784E84E858E8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DAA3212C-9EA0-4F60-9BC2-AD5EAEF2279B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2300,21 +3371,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{16C85F02-9775-4D6C-AF6B-784E84E858E8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0E5A85AC-2CBD-412F-82B1-8F6832D6B804}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Exercise.xlsx
+++ b/Exercise.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pooja\Downloads\Microsoft Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{527CFAB5-C13F-423A-9CC4-5B9D483AAD89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27E0947F-0D84-4B70-9916-DDF924D29027}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16690" yWindow="-320" windowWidth="19420" windowHeight="11020" xr2:uid="{A7F1AEE3-0EAD-4639-A56C-8AAFF0B9C8BF}"/>
+    <workbookView xWindow="16690" yWindow="-320" windowWidth="19420" windowHeight="11020" activeTab="1" xr2:uid="{A7F1AEE3-0EAD-4639-A56C-8AAFF0B9C8BF}"/>
   </bookViews>
   <sheets>
     <sheet name="Original Dataset" sheetId="4" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="152">
   <si>
     <t>Full Name</t>
   </si>
@@ -154,9 +154,6 @@
   </si>
   <si>
     <t>Martins Corner, NH</t>
-  </si>
-  <si>
-    <t>Pickerel Narrows, ME</t>
   </si>
   <si>
     <t>Willaha, NY</t>
@@ -502,8 +499,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0"/>
+  <numFmts count="1">
     <numFmt numFmtId="165" formatCode="_-[$$-409]* #,##0_ ;_-[$$-409]* \-#,##0\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
@@ -574,9 +570,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -596,9 +591,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -606,27 +598,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -936,10 +916,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F1DC30F-03E5-4845-92EF-BCFF78A27010}">
-  <dimension ref="A1:Z26"/>
+  <dimension ref="A1:X26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O14" sqref="O14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -948,26 +928,24 @@
     <col min="2" max="2" width="23.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="39" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="20.85546875" customWidth="1"/>
-    <col min="9" max="9" width="12.7109375" customWidth="1"/>
-    <col min="10" max="10" width="16" customWidth="1"/>
-    <col min="11" max="11" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.28515625" customWidth="1"/>
-    <col min="13" max="13" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.28515625" customWidth="1"/>
+    <col min="11" max="11" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="16.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -985,42 +963,36 @@
         <v>16</v>
       </c>
       <c r="I1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J1" t="s">
-        <v>17</v>
-      </c>
-      <c r="K1" t="s">
         <v>18</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="J1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="K1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="L1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="M1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="N1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="R1" t="s">
+      <c r="P1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B2" t="s">
         <v>77</v>
       </c>
-      <c r="B2" t="s">
-        <v>78</v>
-      </c>
       <c r="C2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D2">
         <v>104650</v>
@@ -1037,44 +1009,44 @@
       <c r="H2" t="s">
         <v>25</v>
       </c>
-      <c r="K2" t="s">
+      <c r="I2" t="s">
         <v>26</v>
       </c>
+      <c r="J2">
+        <v>125319</v>
+      </c>
+      <c r="K2">
+        <v>65792</v>
+      </c>
       <c r="L2">
-        <v>125319</v>
+        <f>J2-K2</f>
+        <v>59527</v>
       </c>
       <c r="M2">
-        <v>65792</v>
+        <v>4667</v>
       </c>
       <c r="N2">
         <f>L2-M2</f>
-        <v>59527</v>
-      </c>
-      <c r="O2">
-        <v>4667</v>
-      </c>
-      <c r="P2">
-        <f>N2-O2</f>
         <v>54860</v>
       </c>
-      <c r="R2" s="2" t="s">
+      <c r="P2" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="S2">
-        <f>AVERAGE(L2:L20)</f>
+      <c r="Q2">
+        <f>AVERAGE(J2:J20)</f>
         <v>276986.5263157895</v>
       </c>
-      <c r="Z2" s="2"/>
-    </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="X2" s="1"/>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B3" t="s">
         <v>79</v>
       </c>
-      <c r="B3" t="s">
-        <v>80</v>
-      </c>
       <c r="C3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D3">
         <v>150298</v>
@@ -1091,35 +1063,35 @@
       <c r="H3" t="s">
         <v>28</v>
       </c>
-      <c r="K3" t="s">
+      <c r="I3" t="s">
         <v>29</v>
       </c>
-      <c r="L3">
+      <c r="J3">
         <v>433924</v>
       </c>
+      <c r="K3">
+        <v>101465</v>
+      </c>
       <c r="M3">
-        <v>101465</v>
-      </c>
-      <c r="O3">
         <v>5068</v>
       </c>
-      <c r="R3" t="s">
+      <c r="P3" t="s">
         <v>30</v>
       </c>
-      <c r="S3">
-        <f>MAX(L2:L20)</f>
+      <c r="Q3">
+        <f>MAX(J2:J20)</f>
         <v>461214</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D4">
         <v>413803</v>
@@ -1136,35 +1108,35 @@
       <c r="H4" t="s">
         <v>31</v>
       </c>
-      <c r="K4" t="s">
+      <c r="I4" t="s">
         <v>32</v>
       </c>
-      <c r="L4">
+      <c r="J4">
         <v>135816</v>
       </c>
+      <c r="K4">
+        <v>67388</v>
+      </c>
       <c r="M4">
-        <v>67388</v>
-      </c>
-      <c r="O4">
         <v>5700</v>
       </c>
-      <c r="R4" t="s">
+      <c r="P4" t="s">
         <v>33</v>
       </c>
-      <c r="S4">
-        <f>MIN(L2:L20)</f>
+      <c r="Q4">
+        <f>MIN(J2:J20)</f>
         <v>125319</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B5" t="s">
         <v>82</v>
       </c>
-      <c r="B5" t="s">
-        <v>83</v>
-      </c>
       <c r="C5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -1181,28 +1153,28 @@
       <c r="H5" t="s">
         <v>34</v>
       </c>
-      <c r="K5" t="s">
+      <c r="I5" t="s">
         <v>26</v>
       </c>
-      <c r="L5">
+      <c r="J5">
         <v>233255</v>
       </c>
+      <c r="K5">
+        <v>83606</v>
+      </c>
       <c r="M5">
-        <v>83606</v>
-      </c>
-      <c r="O5">
         <v>5089</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D6">
         <v>231794</v>
@@ -1219,28 +1191,28 @@
       <c r="H6" t="s">
         <v>35</v>
       </c>
-      <c r="K6" t="s">
+      <c r="I6" t="s">
         <v>29</v>
       </c>
-      <c r="L6">
+      <c r="J6">
         <v>128691</v>
       </c>
+      <c r="K6">
+        <v>67175</v>
+      </c>
       <c r="M6">
-        <v>67175</v>
-      </c>
-      <c r="O6">
         <v>4956</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D7">
         <v>406324</v>
@@ -1257,28 +1229,28 @@
       <c r="H7" t="s">
         <v>36</v>
       </c>
-      <c r="K7" t="s">
+      <c r="I7" t="s">
         <v>26</v>
       </c>
-      <c r="L7">
+      <c r="J7">
         <v>244913</v>
       </c>
+      <c r="K7">
+        <v>89974</v>
+      </c>
       <c r="M7">
-        <v>89974</v>
-      </c>
-      <c r="O7">
         <v>5062</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D8">
         <v>364865</v>
@@ -1295,28 +1267,28 @@
       <c r="H8" t="s">
         <v>37</v>
       </c>
-      <c r="K8" t="s">
+      <c r="I8" t="s">
         <v>29</v>
       </c>
-      <c r="L8">
+      <c r="J8">
         <v>392518</v>
       </c>
+      <c r="K8">
+        <v>82675</v>
+      </c>
       <c r="M8">
-        <v>82675</v>
-      </c>
-      <c r="O8">
         <v>6100</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>86</v>
+      </c>
+      <c r="B9" t="s">
         <v>87</v>
       </c>
-      <c r="B9" t="s">
-        <v>88</v>
-      </c>
       <c r="C9" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D9">
         <v>224682</v>
@@ -1333,28 +1305,28 @@
       <c r="H9" t="s">
         <v>38</v>
       </c>
-      <c r="K9" t="s">
+      <c r="I9" t="s">
         <v>29</v>
       </c>
-      <c r="L9">
+      <c r="J9">
         <v>331773</v>
       </c>
+      <c r="K9">
+        <v>85288</v>
+      </c>
       <c r="M9">
-        <v>85288</v>
-      </c>
-      <c r="O9">
         <v>5795</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>88</v>
+      </c>
+      <c r="B10" t="s">
         <v>89</v>
       </c>
-      <c r="B10" t="s">
-        <v>90</v>
-      </c>
       <c r="C10" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -1368,31 +1340,31 @@
       <c r="G10">
         <v>241172</v>
       </c>
-      <c r="H10" t="s">
-        <v>39</v>
-      </c>
-      <c r="K10" t="s">
+      <c r="H10" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="I10" t="s">
         <v>32</v>
       </c>
-      <c r="L10">
+      <c r="J10">
         <v>244975</v>
       </c>
+      <c r="K10">
+        <v>100834</v>
+      </c>
       <c r="M10">
-        <v>100834</v>
-      </c>
-      <c r="O10">
         <v>5153</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C11" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D11">
         <v>233555</v>
@@ -1407,30 +1379,30 @@
         <v>145471</v>
       </c>
       <c r="H11" t="s">
-        <v>40</v>
-      </c>
-      <c r="K11" t="s">
+        <v>39</v>
+      </c>
+      <c r="I11" t="s">
         <v>32</v>
       </c>
-      <c r="L11">
+      <c r="J11">
         <v>137925</v>
       </c>
+      <c r="K11">
+        <v>104528</v>
+      </c>
       <c r="M11">
-        <v>104528</v>
-      </c>
-      <c r="O11">
         <v>5673</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>91</v>
+      </c>
+      <c r="B12" t="s">
         <v>92</v>
       </c>
-      <c r="B12" t="s">
-        <v>93</v>
-      </c>
       <c r="C12" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D12">
         <v>267857</v>
@@ -1445,30 +1417,30 @@
         <v>119241</v>
       </c>
       <c r="H12" t="s">
-        <v>41</v>
-      </c>
-      <c r="K12" t="s">
+        <v>40</v>
+      </c>
+      <c r="I12" t="s">
         <v>26</v>
       </c>
-      <c r="L12">
+      <c r="J12">
         <v>207163</v>
       </c>
+      <c r="K12">
+        <v>73705</v>
+      </c>
       <c r="M12">
-        <v>73705</v>
-      </c>
-      <c r="O12">
         <v>5599</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C13" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D13">
         <v>209008</v>
@@ -1483,30 +1455,30 @@
         <v>303757</v>
       </c>
       <c r="H13" t="s">
-        <v>42</v>
-      </c>
-      <c r="K13" t="s">
+        <v>41</v>
+      </c>
+      <c r="I13" t="s">
         <v>32</v>
       </c>
-      <c r="L13">
+      <c r="J13">
         <v>432326</v>
       </c>
+      <c r="K13">
+        <v>79297</v>
+      </c>
       <c r="M13">
-        <v>79297</v>
-      </c>
-      <c r="O13">
         <v>4872</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>94</v>
+      </c>
+      <c r="B14" t="s">
         <v>95</v>
       </c>
-      <c r="B14" t="s">
-        <v>96</v>
-      </c>
       <c r="C14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D14">
         <v>157338</v>
@@ -1521,30 +1493,30 @@
         <v>242891</v>
       </c>
       <c r="H14" t="s">
-        <v>43</v>
-      </c>
-      <c r="K14" t="s">
+        <v>42</v>
+      </c>
+      <c r="I14" t="s">
         <v>32</v>
       </c>
-      <c r="L14">
+      <c r="J14">
         <v>177789</v>
       </c>
+      <c r="K14">
+        <v>103757</v>
+      </c>
       <c r="M14">
-        <v>103757</v>
-      </c>
-      <c r="O14">
         <v>5144</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C15" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D15">
         <v>185351</v>
@@ -1559,30 +1531,30 @@
         <v>224008</v>
       </c>
       <c r="H15" t="s">
-        <v>44</v>
-      </c>
-      <c r="K15" t="s">
+        <v>43</v>
+      </c>
+      <c r="I15" t="s">
         <v>29</v>
       </c>
-      <c r="L15">
+      <c r="J15">
         <v>201945</v>
       </c>
+      <c r="K15">
+        <v>83178</v>
+      </c>
       <c r="M15">
-        <v>83178</v>
-      </c>
-      <c r="O15">
         <v>4734</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>97</v>
+      </c>
+      <c r="B16" t="s">
         <v>98</v>
       </c>
-      <c r="B16" t="s">
-        <v>99</v>
-      </c>
       <c r="C16" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -1597,30 +1569,30 @@
         <v>262537</v>
       </c>
       <c r="H16" t="s">
-        <v>45</v>
-      </c>
-      <c r="K16" t="s">
+        <v>44</v>
+      </c>
+      <c r="I16" t="s">
         <v>26</v>
       </c>
-      <c r="L16">
+      <c r="J16">
         <v>461214</v>
       </c>
+      <c r="K16">
+        <v>86688</v>
+      </c>
       <c r="M16">
-        <v>86688</v>
-      </c>
-      <c r="O16">
         <v>6066</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>99</v>
+      </c>
+      <c r="B17" t="s">
         <v>100</v>
       </c>
-      <c r="B17" t="s">
-        <v>101</v>
-      </c>
       <c r="C17" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D17">
         <v>148716</v>
@@ -1635,30 +1607,30 @@
         <v>295393</v>
       </c>
       <c r="H17" t="s">
-        <v>46</v>
-      </c>
-      <c r="K17" t="s">
+        <v>45</v>
+      </c>
+      <c r="I17" t="s">
         <v>32</v>
       </c>
-      <c r="L17">
+      <c r="J17">
         <v>440462</v>
       </c>
+      <c r="K17">
+        <v>81912</v>
+      </c>
       <c r="M17">
-        <v>81912</v>
-      </c>
-      <c r="O17">
         <v>4842</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>101</v>
+      </c>
+      <c r="B18" t="s">
         <v>102</v>
       </c>
-      <c r="B18" t="s">
-        <v>103</v>
-      </c>
       <c r="C18" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D18">
         <v>120062</v>
@@ -1673,30 +1645,30 @@
         <v>442987</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
-      </c>
-      <c r="K18" t="s">
+        <v>46</v>
+      </c>
+      <c r="I18" t="s">
         <v>32</v>
       </c>
-      <c r="L18">
+      <c r="J18">
         <v>407339</v>
       </c>
+      <c r="K18">
+        <v>88286</v>
+      </c>
       <c r="M18">
-        <v>88286</v>
-      </c>
-      <c r="O18">
         <v>4604</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>103</v>
+      </c>
+      <c r="B19" t="s">
         <v>104</v>
       </c>
-      <c r="B19" t="s">
-        <v>105</v>
-      </c>
       <c r="C19" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D19">
         <v>146168</v>
@@ -1711,30 +1683,30 @@
         <v>243717</v>
       </c>
       <c r="H19" t="s">
-        <v>48</v>
-      </c>
-      <c r="K19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
         <v>32</v>
       </c>
-      <c r="L19">
+      <c r="J19">
         <v>376263</v>
       </c>
+      <c r="K19">
+        <v>92698</v>
+      </c>
       <c r="M19">
-        <v>92698</v>
-      </c>
-      <c r="O19">
         <v>5195</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>105</v>
+      </c>
+      <c r="B20" t="s">
         <v>106</v>
       </c>
-      <c r="B20" t="s">
-        <v>107</v>
-      </c>
       <c r="C20" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D20">
         <v>354140</v>
@@ -1749,30 +1721,30 @@
         <v>233292</v>
       </c>
       <c r="H20" t="s">
-        <v>49</v>
-      </c>
-      <c r="K20" t="s">
+        <v>48</v>
+      </c>
+      <c r="I20" t="s">
         <v>29</v>
       </c>
-      <c r="L20">
+      <c r="J20">
         <v>149134</v>
       </c>
+      <c r="K20">
+        <v>87513</v>
+      </c>
       <c r="M20">
-        <v>87513</v>
-      </c>
-      <c r="O20">
         <v>5168</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>107</v>
+      </c>
+      <c r="B21" t="s">
         <v>108</v>
       </c>
-      <c r="B21" t="s">
-        <v>109</v>
-      </c>
       <c r="C21" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D21">
         <v>438135</v>
@@ -1787,9 +1759,9 @@
         <v>262490</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -1801,9 +1773,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB2969A0-E328-41DF-8FAC-1B10B2F7DEC8}">
   <dimension ref="A1:I26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D7" sqref="D7"/>
+      <selection pane="bottomLeft" activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1812,95 +1784,95 @@
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="39" bestFit="1" customWidth="1"/>
-    <col min="5" max="8" width="10.42578125" customWidth="1"/>
-    <col min="9" max="9" width="12.140625" customWidth="1"/>
+    <col min="5" max="8" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="11" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:9" s="9" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="E1" s="7" t="s">
+      <c r="C1" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="E1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="7" t="s">
-        <v>50</v>
+      <c r="I1" s="6" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B2" t="s">
         <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>134</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>112</v>
-      </c>
-      <c r="E2" s="1">
+        <v>133</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="E2" s="2">
         <v>104650</v>
       </c>
-      <c r="F2" s="1">
+      <c r="F2" s="2">
         <v>194875</v>
       </c>
-      <c r="G2" s="1">
+      <c r="G2" s="2">
         <v>213221</v>
       </c>
-      <c r="H2" s="1">
+      <c r="H2" s="2">
         <v>193992</v>
       </c>
-      <c r="I2" s="1">
+      <c r="I2" s="2">
         <f>SUM(E2:H2)</f>
         <v>706738</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B3" t="s">
         <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D3" t="s">
-        <v>113</v>
-      </c>
-      <c r="E3" s="1">
+        <v>112</v>
+      </c>
+      <c r="E3" s="2">
         <v>150298</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F3" s="2">
         <v>250131</v>
       </c>
-      <c r="G3" s="1">
+      <c r="G3" s="2">
         <v>262538</v>
       </c>
-      <c r="H3" s="1">
+      <c r="H3" s="2">
         <v>195802</v>
       </c>
-      <c r="I3" s="1">
+      <c r="I3" s="2">
         <f t="shared" ref="I3:I21" si="0">SUM(E3:H3)</f>
         <v>858769</v>
       </c>
@@ -1913,54 +1885,50 @@
         <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D4" t="s">
-        <v>114</v>
-      </c>
-      <c r="E4" s="1">
+        <v>113</v>
+      </c>
+      <c r="E4" s="2">
         <v>413803</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F4" s="2">
         <v>367772</v>
       </c>
-      <c r="G4" s="1">
+      <c r="G4" s="2">
         <v>284116</v>
       </c>
-      <c r="H4" s="1">
+      <c r="H4" s="2">
         <v>321618</v>
       </c>
-      <c r="I4" s="1">
+      <c r="I4" s="2">
         <f t="shared" si="0"/>
         <v>1387309</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D5" t="s">
-        <v>115</v>
-      </c>
-      <c r="E5" s="1">
-        <v>0</v>
-      </c>
-      <c r="F5" s="1">
-        <v>0</v>
-      </c>
-      <c r="G5" s="1">
+        <v>114</v>
+      </c>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2">
         <v>123453</v>
       </c>
-      <c r="H5" s="1">
+      <c r="H5" s="2">
         <v>287457</v>
       </c>
-      <c r="I5" s="1">
+      <c r="I5" s="2">
         <f t="shared" si="0"/>
         <v>410910</v>
       </c>
@@ -1973,24 +1941,24 @@
         <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D6" t="s">
-        <v>116</v>
-      </c>
-      <c r="E6" s="1">
+        <v>115</v>
+      </c>
+      <c r="E6" s="2">
         <v>231794</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F6" s="2">
         <v>214229</v>
       </c>
-      <c r="G6" s="1">
+      <c r="G6" s="2">
         <v>302197</v>
       </c>
-      <c r="H6" s="1">
+      <c r="H6" s="2">
         <v>360759</v>
       </c>
-      <c r="I6" s="1">
+      <c r="I6" s="2">
         <f t="shared" si="0"/>
         <v>1108979</v>
       </c>
@@ -2003,24 +1971,24 @@
         <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D7" t="s">
-        <v>117</v>
-      </c>
-      <c r="E7" s="1">
+        <v>116</v>
+      </c>
+      <c r="E7" s="2">
         <v>406324</v>
       </c>
-      <c r="F7" s="1">
+      <c r="F7" s="2">
         <v>423569</v>
       </c>
-      <c r="G7" s="1">
+      <c r="G7" s="2">
         <v>160758</v>
       </c>
-      <c r="H7" s="1">
+      <c r="H7" s="2">
         <v>287874</v>
       </c>
-      <c r="I7" s="1">
+      <c r="I7" s="2">
         <f t="shared" si="0"/>
         <v>1278525</v>
       </c>
@@ -2033,144 +2001,138 @@
         <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D8" t="s">
-        <v>118</v>
-      </c>
-      <c r="E8">
+        <v>117</v>
+      </c>
+      <c r="E8" s="2">
         <v>364865</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="2">
         <v>414727</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="2">
         <v>250822</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="2">
         <v>423552</v>
       </c>
-      <c r="I8" s="1">
+      <c r="I8" s="2">
         <f t="shared" si="0"/>
         <v>1453966</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B9" t="s">
         <v>11</v>
       </c>
       <c r="C9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D9" t="s">
-        <v>119</v>
-      </c>
-      <c r="E9">
+        <v>118</v>
+      </c>
+      <c r="E9" s="2">
         <v>224682</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="2">
         <v>276694</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="2">
         <v>261209</v>
       </c>
-      <c r="H9">
+      <c r="H9" s="2">
         <v>348653</v>
       </c>
-      <c r="I9" s="1">
+      <c r="I9" s="2">
         <f t="shared" si="0"/>
         <v>1111238</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B10" t="s">
         <v>11</v>
       </c>
       <c r="C10" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D10" t="s">
-        <v>120</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10">
+        <v>119</v>
+      </c>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2">
         <v>241172</v>
       </c>
-      <c r="I10" s="1">
+      <c r="I10" s="2">
         <f t="shared" si="0"/>
         <v>241172</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B11" t="s">
         <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D11" t="s">
-        <v>121</v>
-      </c>
-      <c r="E11">
+        <v>120</v>
+      </c>
+      <c r="E11" s="2">
         <v>233555</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="2">
         <v>121487</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="2">
         <v>350045</v>
       </c>
-      <c r="H11">
+      <c r="H11" s="2">
         <v>145471</v>
       </c>
-      <c r="I11" s="1">
+      <c r="I11" s="2">
         <f t="shared" si="0"/>
         <v>850558</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B12" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C12" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D12" t="s">
-        <v>122</v>
-      </c>
-      <c r="E12">
+        <v>121</v>
+      </c>
+      <c r="E12" s="2">
         <v>267857</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="2">
         <v>220092</v>
       </c>
-      <c r="G12">
+      <c r="G12" s="2">
         <v>114437</v>
       </c>
-      <c r="H12">
+      <c r="H12" s="2">
         <v>119241</v>
       </c>
-      <c r="I12" s="1">
+      <c r="I12" s="2">
         <f t="shared" si="0"/>
         <v>721627</v>
       </c>
@@ -2183,54 +2145,54 @@
         <v>14</v>
       </c>
       <c r="C13" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D13" t="s">
-        <v>123</v>
-      </c>
-      <c r="E13">
+        <v>122</v>
+      </c>
+      <c r="E13" s="2">
         <v>209008</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="2">
         <v>284024</v>
       </c>
-      <c r="G13">
+      <c r="G13" s="2">
         <v>295343</v>
       </c>
-      <c r="H13">
+      <c r="H13" s="2">
         <v>303757</v>
       </c>
-      <c r="I13" s="1">
+      <c r="I13" s="2">
         <f t="shared" si="0"/>
         <v>1092132</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B14" t="s">
         <v>14</v>
       </c>
       <c r="C14" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D14" t="s">
-        <v>124</v>
-      </c>
-      <c r="E14">
+        <v>123</v>
+      </c>
+      <c r="E14" s="2">
         <v>157338</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="2">
         <v>438173</v>
       </c>
-      <c r="G14">
+      <c r="G14" s="2">
         <v>416473</v>
       </c>
-      <c r="H14">
+      <c r="H14" s="2">
         <v>242891</v>
       </c>
-      <c r="I14" s="1">
+      <c r="I14" s="2">
         <f t="shared" si="0"/>
         <v>1254875</v>
       </c>
@@ -2243,215 +2205,213 @@
         <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D15" t="s">
-        <v>125</v>
-      </c>
-      <c r="E15">
+        <v>124</v>
+      </c>
+      <c r="E15" s="2">
         <v>185351</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="2">
         <v>172879</v>
       </c>
-      <c r="G15">
+      <c r="G15" s="2">
         <v>415627</v>
       </c>
-      <c r="H15">
+      <c r="H15" s="2">
         <v>224008</v>
       </c>
-      <c r="I15" s="1">
+      <c r="I15" s="2">
         <f t="shared" si="0"/>
         <v>997865</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B16" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C16" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D16" t="s">
-        <v>126</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16">
+        <v>125</v>
+      </c>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2">
         <v>101622</v>
       </c>
-      <c r="G16">
+      <c r="G16" s="2">
         <v>120465</v>
       </c>
-      <c r="H16">
+      <c r="H16" s="2">
         <v>262537</v>
       </c>
-      <c r="I16" s="1">
+      <c r="I16" s="2">
         <f t="shared" si="0"/>
         <v>484624</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B17" t="s">
         <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D17" t="s">
-        <v>127</v>
-      </c>
-      <c r="E17">
+        <v>126</v>
+      </c>
+      <c r="E17" s="2">
         <v>148716</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="2">
         <v>440788</v>
       </c>
-      <c r="G17">
+      <c r="G17" s="2">
         <v>118717</v>
       </c>
-      <c r="H17">
+      <c r="H17" s="2">
         <v>295393</v>
       </c>
-      <c r="I17" s="1">
+      <c r="I17" s="2">
         <f t="shared" si="0"/>
         <v>1003614</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B18" t="s">
         <v>7</v>
       </c>
       <c r="C18" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D18" t="s">
-        <v>128</v>
-      </c>
-      <c r="E18">
+        <v>127</v>
+      </c>
+      <c r="E18" s="2">
         <v>120062</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="2">
         <v>402641</v>
       </c>
-      <c r="G18">
+      <c r="G18" s="2">
         <v>426099</v>
       </c>
-      <c r="H18">
+      <c r="H18" s="2">
         <v>442987</v>
       </c>
-      <c r="I18" s="1">
+      <c r="I18" s="2">
         <f t="shared" si="0"/>
         <v>1391789</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B19" t="s">
         <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D19" t="s">
-        <v>129</v>
-      </c>
-      <c r="E19">
+        <v>128</v>
+      </c>
+      <c r="E19" s="2">
         <v>146168</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="2">
         <v>237376</v>
       </c>
-      <c r="G19">
+      <c r="G19" s="2">
         <v>344725</v>
       </c>
-      <c r="H19">
+      <c r="H19" s="2">
         <v>243717</v>
       </c>
-      <c r="I19" s="1">
+      <c r="I19" s="2">
         <f t="shared" si="0"/>
         <v>971986</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B20" t="s">
         <v>9</v>
       </c>
       <c r="C20" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D20" t="s">
-        <v>130</v>
-      </c>
-      <c r="E20">
+        <v>129</v>
+      </c>
+      <c r="E20" s="2">
         <v>354140</v>
       </c>
-      <c r="F20">
+      <c r="F20" s="2">
         <v>193108</v>
       </c>
-      <c r="G20">
+      <c r="G20" s="2">
         <v>248584</v>
       </c>
-      <c r="H20">
+      <c r="H20" s="2">
         <v>233292</v>
       </c>
-      <c r="I20" s="1">
+      <c r="I20" s="2">
         <f t="shared" si="0"/>
         <v>1029124</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B21" t="s">
         <v>7</v>
       </c>
       <c r="C21" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D21" t="s">
-        <v>131</v>
-      </c>
-      <c r="E21">
+        <v>130</v>
+      </c>
+      <c r="E21" s="2">
         <v>438135</v>
       </c>
-      <c r="F21">
+      <c r="F21" s="2">
         <v>303683</v>
       </c>
-      <c r="G21">
+      <c r="G21" s="2">
         <v>446278</v>
       </c>
-      <c r="H21">
+      <c r="H21" s="2">
         <v>262490</v>
       </c>
-      <c r="I21" s="1">
+      <c r="I21" s="2">
         <f t="shared" si="0"/>
         <v>1450586</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="B26" s="10"/>
-      <c r="C26" s="10"/>
-      <c r="D26" s="10"/>
+      <c r="A26" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="B26" s="8"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -2467,583 +2427,583 @@
   <dimension ref="A1:S20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J7" sqref="J7"/>
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.140625" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8" style="8" customWidth="1"/>
-    <col min="3" max="3" width="11.140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8" style="7" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" style="7" bestFit="1" customWidth="1"/>
     <col min="4" max="8" width="15.7109375" customWidth="1"/>
     <col min="9" max="9" width="24.140625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="16.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="6" customFormat="1" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:19" s="5" customFormat="1" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="4"/>
+      <c r="I1" s="3"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="C2" s="8" t="s">
+      <c r="A2" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="C2" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="2">
         <v>125319</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="2">
         <v>65792</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F2" s="2">
         <f>D2-E2</f>
         <v>59527</v>
       </c>
-      <c r="G2" s="3">
+      <c r="G2" s="2">
         <v>4667</v>
       </c>
-      <c r="H2" s="3">
+      <c r="H2" s="2">
         <f>F2-G2</f>
         <v>54860</v>
       </c>
-      <c r="M2" s="2"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="2"/>
-      <c r="R2" s="2"/>
-      <c r="S2" s="2"/>
+      <c r="M2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="C3" s="8" t="s">
+      <c r="A3" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="C3" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="2">
         <v>433924</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="2">
         <v>101465</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3" s="2">
         <f t="shared" ref="F3:F20" si="0">D3-E3</f>
         <v>332459</v>
       </c>
-      <c r="G3" s="3">
+      <c r="G3" s="2">
         <v>5068</v>
       </c>
-      <c r="H3" s="3">
+      <c r="H3" s="2">
         <f t="shared" ref="H3:H20" si="1">F3-G3</f>
         <v>327391</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="C4" s="8" t="s">
+      <c r="A4" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="C4" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="2">
         <v>135816</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="2">
         <v>67388</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="2">
         <f t="shared" si="0"/>
         <v>68428</v>
       </c>
-      <c r="G4" s="3">
+      <c r="G4" s="2">
         <v>5700</v>
       </c>
-      <c r="H4" s="3">
+      <c r="H4" s="2">
         <f t="shared" si="1"/>
         <v>62728</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="C5" s="8" t="s">
+      <c r="A5" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="C5" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="2">
         <v>233255</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="2">
         <v>83606</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="2">
         <f t="shared" si="0"/>
         <v>149649</v>
       </c>
-      <c r="G5" s="3">
+      <c r="G5" s="2">
         <v>5089</v>
       </c>
-      <c r="H5" s="3">
+      <c r="H5" s="2">
         <f t="shared" si="1"/>
         <v>144560</v>
       </c>
-      <c r="J5" s="2"/>
+      <c r="J5" s="1"/>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="C6" s="8" t="s">
+      <c r="A6" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="C6" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="2">
         <v>128691</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="2">
         <v>67175</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="2">
         <f t="shared" si="0"/>
         <v>61516</v>
       </c>
-      <c r="G6" s="3">
+      <c r="G6" s="2">
         <v>4956</v>
       </c>
-      <c r="H6" s="3">
+      <c r="H6" s="2">
         <f t="shared" si="1"/>
         <v>56560</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="C7" s="8" t="s">
+      <c r="A7" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="C7" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="2">
         <v>244913</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="2">
         <v>89974</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7" s="2">
         <f t="shared" si="0"/>
         <v>154939</v>
       </c>
-      <c r="G7" s="3">
+      <c r="G7" s="2">
         <v>5062</v>
       </c>
-      <c r="H7" s="3">
+      <c r="H7" s="2">
         <f t="shared" si="1"/>
         <v>149877</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="C8" s="8" t="s">
+      <c r="A8" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="C8" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="2">
         <v>392518</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="2">
         <v>82675</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8" s="2">
         <f t="shared" si="0"/>
         <v>309843</v>
       </c>
-      <c r="G8" s="3">
+      <c r="G8" s="2">
         <v>6100</v>
       </c>
-      <c r="H8" s="3">
+      <c r="H8" s="2">
         <f t="shared" si="1"/>
         <v>303743</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="C9" s="8" t="s">
+      <c r="A9" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="C9" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="2">
         <v>331773</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="2">
         <v>85288</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9" s="2">
         <f t="shared" si="0"/>
         <v>246485</v>
       </c>
-      <c r="G9" s="3">
+      <c r="G9" s="2">
         <v>5795</v>
       </c>
-      <c r="H9" s="3">
+      <c r="H9" s="2">
         <f t="shared" si="1"/>
         <v>240690</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A10" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="C10" s="8" t="s">
+      <c r="A10" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="C10" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="2">
         <v>244975</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="2">
         <v>100834</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F10" s="2">
         <f t="shared" si="0"/>
         <v>144141</v>
       </c>
-      <c r="G10" s="3">
+      <c r="G10" s="2">
         <v>5153</v>
       </c>
-      <c r="H10" s="3">
+      <c r="H10" s="2">
         <f t="shared" si="1"/>
         <v>138988</v>
       </c>
-      <c r="J10" s="5"/>
+      <c r="J10" s="4"/>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A11" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="C11" s="8" t="s">
+      <c r="A11" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="C11" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="2">
         <v>137925</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11" s="2">
         <v>104528</v>
       </c>
-      <c r="F11" s="3">
+      <c r="F11" s="2">
         <f t="shared" si="0"/>
         <v>33397</v>
       </c>
-      <c r="G11" s="3">
+      <c r="G11" s="2">
         <v>5673</v>
       </c>
-      <c r="H11" s="3">
+      <c r="H11" s="2">
         <f t="shared" si="1"/>
         <v>27724</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="C12" s="8" t="s">
+      <c r="A12" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="C12" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12" s="2">
         <v>207163</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E12" s="2">
         <v>73705</v>
       </c>
-      <c r="F12" s="3">
+      <c r="F12" s="2">
         <f t="shared" si="0"/>
         <v>133458</v>
       </c>
-      <c r="G12" s="3">
+      <c r="G12" s="2">
         <v>5599</v>
       </c>
-      <c r="H12" s="3">
+      <c r="H12" s="2">
         <f t="shared" si="1"/>
         <v>127859</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A13" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="C13" s="8" t="s">
+      <c r="A13" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="C13" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D13" s="2">
         <v>432326</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E13" s="2">
         <v>79297</v>
       </c>
-      <c r="F13" s="3">
+      <c r="F13" s="2">
         <f t="shared" si="0"/>
         <v>353029</v>
       </c>
-      <c r="G13" s="3">
+      <c r="G13" s="2">
         <v>4872</v>
       </c>
-      <c r="H13" s="3">
+      <c r="H13" s="2">
         <f t="shared" si="1"/>
         <v>348157</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A14" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="C14" s="8" t="s">
+      <c r="A14" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="C14" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="2">
         <v>177789</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="2">
         <v>103757</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14" s="2">
         <f t="shared" si="0"/>
         <v>74032</v>
       </c>
-      <c r="G14" s="3">
+      <c r="G14" s="2">
         <v>5144</v>
       </c>
-      <c r="H14" s="3">
+      <c r="H14" s="2">
         <f t="shared" si="1"/>
         <v>68888</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A15" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="C15" s="8" t="s">
+      <c r="A15" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="C15" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15" s="2">
         <v>201945</v>
       </c>
-      <c r="E15" s="3">
+      <c r="E15" s="2">
         <v>83178</v>
       </c>
-      <c r="F15" s="3">
+      <c r="F15" s="2">
         <f t="shared" si="0"/>
         <v>118767</v>
       </c>
-      <c r="G15" s="3">
+      <c r="G15" s="2">
         <v>4734</v>
       </c>
-      <c r="H15" s="3">
+      <c r="H15" s="2">
         <f t="shared" si="1"/>
         <v>114033</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A16" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="C16" s="8" t="s">
+      <c r="A16" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="C16" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D16" s="3">
+      <c r="D16" s="2">
         <v>461214</v>
       </c>
-      <c r="E16" s="3">
+      <c r="E16" s="2">
         <v>86688</v>
       </c>
-      <c r="F16" s="3">
+      <c r="F16" s="2">
         <f t="shared" si="0"/>
         <v>374526</v>
       </c>
-      <c r="G16" s="3">
+      <c r="G16" s="2">
         <v>6066</v>
       </c>
-      <c r="H16" s="3">
+      <c r="H16" s="2">
         <f t="shared" si="1"/>
         <v>368460</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="C17" s="8" t="s">
+      <c r="A17" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="C17" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="2">
         <v>440462</v>
       </c>
-      <c r="E17" s="3">
+      <c r="E17" s="2">
         <v>81912</v>
       </c>
-      <c r="F17" s="3">
+      <c r="F17" s="2">
         <f t="shared" si="0"/>
         <v>358550</v>
       </c>
-      <c r="G17" s="3">
+      <c r="G17" s="2">
         <v>4842</v>
       </c>
-      <c r="H17" s="3">
+      <c r="H17" s="2">
         <f t="shared" si="1"/>
         <v>353708</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="C18" s="8" t="s">
+      <c r="A18" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="C18" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="2">
         <v>407339</v>
       </c>
-      <c r="E18" s="3">
+      <c r="E18" s="2">
         <v>88286</v>
       </c>
-      <c r="F18" s="3">
+      <c r="F18" s="2">
         <f t="shared" si="0"/>
         <v>319053</v>
       </c>
-      <c r="G18" s="3">
+      <c r="G18" s="2">
         <v>4604</v>
       </c>
-      <c r="H18" s="3">
+      <c r="H18" s="2">
         <f t="shared" si="1"/>
         <v>314449</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="C19" s="8" t="s">
+      <c r="A19" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="C19" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D19" s="3">
+      <c r="D19" s="2">
         <v>376263</v>
       </c>
-      <c r="E19" s="3">
+      <c r="E19" s="2">
         <v>92698</v>
       </c>
-      <c r="F19" s="3">
+      <c r="F19" s="2">
         <f t="shared" si="0"/>
         <v>283565</v>
       </c>
-      <c r="G19" s="3">
+      <c r="G19" s="2">
         <v>5195</v>
       </c>
-      <c r="H19" s="3">
+      <c r="H19" s="2">
         <f t="shared" si="1"/>
         <v>278370</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="B20" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="C20" s="8" t="s">
+      <c r="A20" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="C20" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="2">
         <v>149134</v>
       </c>
-      <c r="E20" s="3">
+      <c r="E20" s="2">
         <v>87513</v>
       </c>
-      <c r="F20" s="3">
+      <c r="F20" s="2">
         <f t="shared" si="0"/>
         <v>61621</v>
       </c>
-      <c r="G20" s="3">
+      <c r="G20" s="2">
         <v>5168</v>
       </c>
-      <c r="H20" s="3">
+      <c r="H20" s="2">
         <f t="shared" si="1"/>
         <v>56453</v>
       </c>
@@ -3068,16 +3028,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="9"/>
+      <c r="B1" s="11"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="2">
         <v>276986.5263157895</v>
       </c>
     </row>
@@ -3085,7 +3045,7 @@
       <c r="A3" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="2">
         <v>461214</v>
       </c>
     </row>
@@ -3093,7 +3053,7 @@
       <c r="A4" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="2">
         <v>125319</v>
       </c>
     </row>
@@ -3106,21 +3066,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000E1CD5F422E388419BB522F4435A2991" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="e5c10cafc2c37c7f469fd87ac61c85e7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="e126d1a7-de2c-4ae3-80af-dc9ec7d9558b" xmlns:ns3="16c367a0-1ebe-4645-bffe-e50f3117a967" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="64cf9e92a51322bbdec604bdb87428eb" ns2:_="" ns3:_="">
     <xsd:import namespace="e126d1a7-de2c-4ae3-80af-dc9ec7d9558b"/>
@@ -3337,24 +3282,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0E5A85AC-2CBD-412F-82B1-8F6832D6B804}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{16C85F02-9775-4D6C-AF6B-784E84E858E8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DAA3212C-9EA0-4F60-9BC2-AD5EAEF2279B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3371,4 +3314,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{16C85F02-9775-4D6C-AF6B-784E84E858E8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0E5A85AC-2CBD-412F-82B1-8F6832D6B804}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Exercise.xlsx
+++ b/Exercise.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pooja\Downloads\Microsoft Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27E0947F-0D84-4B70-9916-DDF924D29027}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49402A55-6B7E-43A0-9A9D-4BA36360791D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16690" yWindow="-320" windowWidth="19420" windowHeight="11020" activeTab="1" xr2:uid="{A7F1AEE3-0EAD-4639-A56C-8AAFF0B9C8BF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15990" activeTab="4" xr2:uid="{A7F1AEE3-0EAD-4639-A56C-8AAFF0B9C8BF}"/>
   </bookViews>
   <sheets>
     <sheet name="Original Dataset" sheetId="4" r:id="rId1"/>
     <sheet name="Sales Data" sheetId="1" r:id="rId2"/>
     <sheet name="Financial Data" sheetId="2" r:id="rId3"/>
     <sheet name="Financial Scorecard" sheetId="3" r:id="rId4"/>
+    <sheet name="Sales Report 2018 2019" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="158">
   <si>
     <t>Full Name</t>
   </si>
@@ -493,16 +494,35 @@
   </si>
   <si>
     <t>Cape Town</t>
+  </si>
+  <si>
+    <t>Sales Report 2018/2019</t>
+  </si>
+  <si>
+    <t>by Sales Rep, Region, and Sub-Region</t>
+  </si>
+  <si>
+    <t>Sub-Region</t>
+  </si>
+  <si>
+    <t>Ori Seranna</t>
+  </si>
+  <si>
+    <t>All Reps</t>
+  </si>
+  <si>
+    <t>All Sub Regions</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="_-[$$-409]* #,##0_ ;_-[$$-409]* \-#,##0\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="_-[$$-409]* #,##0_ ;_-[$$-409]* \-#,##0\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
+    <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -533,6 +553,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="14"/>
+      <color theme="4" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -548,7 +577,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -565,17 +594,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -601,6 +639,21 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -916,6 +969,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F1DC30F-03E5-4845-92EF-BCFF78A27010}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:X26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1765,17 +1821,21 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="47" fitToHeight="0" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB2969A0-E328-41DF-8FAC-1B10B2F7DEC8}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:I26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L8" sqref="L8"/>
+      <selection pane="bottomLeft" activeCell="G37" sqref="G37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2418,12 +2478,16 @@
     <hyperlink ref="A26" r:id="rId1" xr:uid="{BD4FBBA9-9F72-43C3-B720-2072E44ADD72}"/>
     <hyperlink ref="D2" r:id="rId2" xr:uid="{4C8EBF90-4687-4BFE-9EA0-174E77BC0EE7}"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="88" fitToHeight="0" orientation="landscape" r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17D64E18-04DF-4C91-A84C-5EB5EC653CDA}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:S20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3009,12 +3073,16 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="87" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A4F40AB-1F15-4573-AC0C-90024DE33C6E}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3061,11 +3129,1863 @@
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>
   </mergeCells>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup fitToHeight="0" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5EDE02B-1AE3-472A-9AA4-105EF5FD6642}">
+  <dimension ref="A1:L50"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S17" sqref="S17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="19.140625" customWidth="1"/>
+    <col min="3" max="3" width="23.140625" customWidth="1"/>
+    <col min="4" max="11" width="10.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="13"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="13"/>
+    </row>
+    <row r="4" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="D4" s="14">
+        <v>2018</v>
+      </c>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14">
+        <v>2019</v>
+      </c>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="14"/>
+    </row>
+    <row r="5" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A5" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>154</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="G5" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="H5" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="I5" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="J5" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="K5" s="17" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>76</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>133</v>
+      </c>
+      <c r="D6" s="18">
+        <v>294470</v>
+      </c>
+      <c r="E6" s="18">
+        <v>186951</v>
+      </c>
+      <c r="F6" s="18">
+        <v>367618</v>
+      </c>
+      <c r="G6" s="18">
+        <v>231313</v>
+      </c>
+      <c r="H6" s="18">
+        <v>104650</v>
+      </c>
+      <c r="I6" s="18">
+        <v>194875</v>
+      </c>
+      <c r="J6" s="18">
+        <v>213221</v>
+      </c>
+      <c r="K6" s="18">
+        <v>193992</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>78</v>
+      </c>
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" t="s">
+        <v>134</v>
+      </c>
+      <c r="D7" s="18">
+        <v>242379</v>
+      </c>
+      <c r="E7" s="18">
+        <v>165761</v>
+      </c>
+      <c r="F7" s="18">
+        <v>242191</v>
+      </c>
+      <c r="G7" s="18">
+        <v>248558</v>
+      </c>
+      <c r="H7" s="18">
+        <v>150298</v>
+      </c>
+      <c r="I7" s="18">
+        <v>250131</v>
+      </c>
+      <c r="J7" s="18">
+        <v>262538</v>
+      </c>
+      <c r="K7" s="18">
+        <v>195802</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>135</v>
+      </c>
+      <c r="D8" s="18">
+        <v>280973</v>
+      </c>
+      <c r="E8" s="18">
+        <v>354725</v>
+      </c>
+      <c r="F8" s="18">
+        <v>100058</v>
+      </c>
+      <c r="G8" s="18">
+        <v>159938</v>
+      </c>
+      <c r="H8" s="18">
+        <v>413803</v>
+      </c>
+      <c r="I8" s="18">
+        <v>367772</v>
+      </c>
+      <c r="J8" s="18">
+        <v>284116</v>
+      </c>
+      <c r="K8" s="18">
+        <v>321618</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>81</v>
+      </c>
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" t="s">
+        <v>136</v>
+      </c>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="18">
+        <v>123453</v>
+      </c>
+      <c r="K9" s="18">
+        <v>287457</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>137</v>
+      </c>
+      <c r="D10" s="18">
+        <v>97664</v>
+      </c>
+      <c r="E10" s="18">
+        <v>175113</v>
+      </c>
+      <c r="F10" s="18">
+        <v>145525</v>
+      </c>
+      <c r="G10" s="18">
+        <v>115866</v>
+      </c>
+      <c r="H10" s="18">
+        <v>231794</v>
+      </c>
+      <c r="I10" s="18">
+        <v>214229</v>
+      </c>
+      <c r="J10" s="18">
+        <v>302197</v>
+      </c>
+      <c r="K10" s="18">
+        <v>360759</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" t="s">
+        <v>138</v>
+      </c>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18">
+        <v>95423</v>
+      </c>
+      <c r="G11" s="18">
+        <v>127835</v>
+      </c>
+      <c r="H11" s="18">
+        <v>406324</v>
+      </c>
+      <c r="I11" s="18">
+        <v>423569</v>
+      </c>
+      <c r="J11" s="18">
+        <v>160758</v>
+      </c>
+      <c r="K11" s="18">
+        <v>287874</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>139</v>
+      </c>
+      <c r="D12" s="18">
+        <v>96072</v>
+      </c>
+      <c r="E12" s="18">
+        <v>322071</v>
+      </c>
+      <c r="F12" s="18">
+        <v>337517</v>
+      </c>
+      <c r="G12" s="18">
+        <v>146034</v>
+      </c>
+      <c r="H12" s="18">
+        <v>364865</v>
+      </c>
+      <c r="I12" s="18">
+        <v>414727</v>
+      </c>
+      <c r="J12" s="18">
+        <v>250822</v>
+      </c>
+      <c r="K12" s="18">
+        <v>423552</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>86</v>
+      </c>
+      <c r="B13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" t="s">
+        <v>140</v>
+      </c>
+      <c r="D13" s="18">
+        <v>261518</v>
+      </c>
+      <c r="E13" s="18">
+        <v>183920</v>
+      </c>
+      <c r="F13" s="18">
+        <v>202946</v>
+      </c>
+      <c r="G13" s="18">
+        <v>205904</v>
+      </c>
+      <c r="H13" s="18">
+        <v>224682</v>
+      </c>
+      <c r="I13" s="18">
+        <v>276694</v>
+      </c>
+      <c r="J13" s="18">
+        <v>261209</v>
+      </c>
+      <c r="K13" s="18">
+        <v>348653</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>88</v>
+      </c>
+      <c r="B14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" t="s">
+        <v>141</v>
+      </c>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="18"/>
+      <c r="I14" s="18"/>
+      <c r="J14" s="18"/>
+      <c r="K14" s="18">
+        <v>241172</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>90</v>
+      </c>
+      <c r="B15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" t="s">
+        <v>134</v>
+      </c>
+      <c r="D15" s="18">
+        <v>212265</v>
+      </c>
+      <c r="E15" s="18">
+        <v>208190</v>
+      </c>
+      <c r="F15" s="18">
+        <v>210727</v>
+      </c>
+      <c r="G15" s="18">
+        <v>93406</v>
+      </c>
+      <c r="H15" s="18">
+        <v>233555</v>
+      </c>
+      <c r="I15" s="18">
+        <v>121487</v>
+      </c>
+      <c r="J15" s="18">
+        <v>350045</v>
+      </c>
+      <c r="K15" s="18">
+        <v>145471</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>91</v>
+      </c>
+      <c r="B16" t="s">
+        <v>132</v>
+      </c>
+      <c r="C16" t="s">
+        <v>142</v>
+      </c>
+      <c r="D16" s="18">
+        <v>104533</v>
+      </c>
+      <c r="E16" s="18">
+        <v>331448</v>
+      </c>
+      <c r="F16" s="18">
+        <v>197325</v>
+      </c>
+      <c r="G16" s="18">
+        <v>207426</v>
+      </c>
+      <c r="H16" s="18">
+        <v>267857</v>
+      </c>
+      <c r="I16" s="18">
+        <v>220092</v>
+      </c>
+      <c r="J16" s="18">
+        <v>114437</v>
+      </c>
+      <c r="K16" s="18">
+        <v>119241</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" t="s">
+        <v>143</v>
+      </c>
+      <c r="D17" s="18">
+        <v>324209</v>
+      </c>
+      <c r="E17" s="18">
+        <v>253397</v>
+      </c>
+      <c r="F17" s="18">
+        <v>298893</v>
+      </c>
+      <c r="G17" s="18">
+        <v>116472</v>
+      </c>
+      <c r="H17" s="18">
+        <v>209008</v>
+      </c>
+      <c r="I17" s="18">
+        <v>284024</v>
+      </c>
+      <c r="J17" s="18">
+        <v>295343</v>
+      </c>
+      <c r="K17" s="18">
+        <v>303757</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>94</v>
+      </c>
+      <c r="B18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" t="s">
+        <v>144</v>
+      </c>
+      <c r="D18" s="18">
+        <v>182673</v>
+      </c>
+      <c r="E18" s="18">
+        <v>338317</v>
+      </c>
+      <c r="F18" s="18">
+        <v>224638</v>
+      </c>
+      <c r="G18" s="18">
+        <v>199913</v>
+      </c>
+      <c r="H18" s="18">
+        <v>157338</v>
+      </c>
+      <c r="I18" s="18">
+        <v>438173</v>
+      </c>
+      <c r="J18" s="18">
+        <v>416473</v>
+      </c>
+      <c r="K18" s="18">
+        <v>242891</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" t="s">
+        <v>145</v>
+      </c>
+      <c r="D19" s="18">
+        <v>359697</v>
+      </c>
+      <c r="E19" s="18">
+        <v>395046</v>
+      </c>
+      <c r="F19" s="18">
+        <v>129871</v>
+      </c>
+      <c r="G19" s="18">
+        <v>112396</v>
+      </c>
+      <c r="H19" s="18">
+        <v>185351</v>
+      </c>
+      <c r="I19" s="18">
+        <v>172879</v>
+      </c>
+      <c r="J19" s="18">
+        <v>415627</v>
+      </c>
+      <c r="K19" s="18">
+        <v>224008</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>97</v>
+      </c>
+      <c r="B20" t="s">
+        <v>132</v>
+      </c>
+      <c r="C20" t="s">
+        <v>146</v>
+      </c>
+      <c r="D20" s="18"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="18"/>
+      <c r="H20" s="18"/>
+      <c r="I20" s="18">
+        <v>101622</v>
+      </c>
+      <c r="J20" s="18">
+        <v>120465</v>
+      </c>
+      <c r="K20" s="18">
+        <v>262537</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>99</v>
+      </c>
+      <c r="B21" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" t="s">
+        <v>147</v>
+      </c>
+      <c r="D21" s="18">
+        <v>281335</v>
+      </c>
+      <c r="E21" s="18">
+        <v>290674</v>
+      </c>
+      <c r="F21" s="18">
+        <v>213416</v>
+      </c>
+      <c r="G21" s="18">
+        <v>138896</v>
+      </c>
+      <c r="H21" s="18">
+        <v>148716</v>
+      </c>
+      <c r="I21" s="18">
+        <v>440788</v>
+      </c>
+      <c r="J21" s="18">
+        <v>118717</v>
+      </c>
+      <c r="K21" s="18">
+        <v>295393</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>101</v>
+      </c>
+      <c r="B22" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" t="s">
+        <v>148</v>
+      </c>
+      <c r="D22" s="18">
+        <v>393053</v>
+      </c>
+      <c r="E22" s="18">
+        <v>155131</v>
+      </c>
+      <c r="F22" s="18">
+        <v>197972</v>
+      </c>
+      <c r="G22" s="18">
+        <v>347987</v>
+      </c>
+      <c r="H22" s="18">
+        <v>120062</v>
+      </c>
+      <c r="I22" s="18">
+        <v>402641</v>
+      </c>
+      <c r="J22" s="18">
+        <v>426099</v>
+      </c>
+      <c r="K22" s="18">
+        <v>442987</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>103</v>
+      </c>
+      <c r="B23" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" t="s">
+        <v>149</v>
+      </c>
+      <c r="D23" s="18">
+        <v>119379</v>
+      </c>
+      <c r="E23" s="18">
+        <v>160105</v>
+      </c>
+      <c r="F23" s="18">
+        <v>219178</v>
+      </c>
+      <c r="G23" s="18">
+        <v>189883</v>
+      </c>
+      <c r="H23" s="18">
+        <v>146168</v>
+      </c>
+      <c r="I23" s="18">
+        <v>237376</v>
+      </c>
+      <c r="J23" s="18">
+        <v>344725</v>
+      </c>
+      <c r="K23" s="18">
+        <v>243717</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>105</v>
+      </c>
+      <c r="B24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" t="s">
+        <v>150</v>
+      </c>
+      <c r="D24" s="18"/>
+      <c r="E24" s="18">
+        <v>101900</v>
+      </c>
+      <c r="F24" s="18">
+        <v>364528</v>
+      </c>
+      <c r="G24" s="18">
+        <v>211122</v>
+      </c>
+      <c r="H24" s="18">
+        <v>354140</v>
+      </c>
+      <c r="I24" s="18">
+        <v>193108</v>
+      </c>
+      <c r="J24" s="18">
+        <v>248584</v>
+      </c>
+      <c r="K24" s="18">
+        <v>233292</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>107</v>
+      </c>
+      <c r="B25" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25" t="s">
+        <v>151</v>
+      </c>
+      <c r="D25" s="18">
+        <v>128355</v>
+      </c>
+      <c r="E25" s="18">
+        <v>135572</v>
+      </c>
+      <c r="F25" s="18">
+        <v>173208</v>
+      </c>
+      <c r="G25" s="18">
+        <v>264144</v>
+      </c>
+      <c r="H25" s="18">
+        <v>438135</v>
+      </c>
+      <c r="I25" s="18">
+        <v>303683</v>
+      </c>
+      <c r="J25" s="18">
+        <v>446278</v>
+      </c>
+      <c r="K25" s="18">
+        <v>262490</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>155</v>
+      </c>
+      <c r="B26" t="s">
+        <v>132</v>
+      </c>
+      <c r="C26" t="s">
+        <v>146</v>
+      </c>
+      <c r="D26" s="18">
+        <v>289224</v>
+      </c>
+      <c r="E26" s="18">
+        <v>194600</v>
+      </c>
+      <c r="F26" s="18"/>
+      <c r="G26" s="18"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>156</v>
+      </c>
+      <c r="B27" t="s">
+        <v>14</v>
+      </c>
+      <c r="C27" t="s">
+        <v>157</v>
+      </c>
+      <c r="D27" s="18">
+        <f>SUMIF($B$6:$B$26,$B27,D$6:D$26)</f>
+        <v>961526</v>
+      </c>
+      <c r="E27" s="18">
+        <f t="shared" ref="E27:K27" si="0">SUMIF($B$6:$B$26,$B27,E$6:E$26)</f>
+        <v>965665</v>
+      </c>
+      <c r="F27" s="18">
+        <f t="shared" si="0"/>
+        <v>976449</v>
+      </c>
+      <c r="G27" s="18">
+        <f t="shared" si="0"/>
+        <v>658349</v>
+      </c>
+      <c r="H27" s="18">
+        <f t="shared" si="0"/>
+        <v>750199</v>
+      </c>
+      <c r="I27" s="18">
+        <f t="shared" si="0"/>
+        <v>1093815</v>
+      </c>
+      <c r="J27" s="18">
+        <f t="shared" si="0"/>
+        <v>1324399</v>
+      </c>
+      <c r="K27" s="18">
+        <f t="shared" si="0"/>
+        <v>887921</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>156</v>
+      </c>
+      <c r="B28" t="s">
+        <v>7</v>
+      </c>
+      <c r="C28" t="s">
+        <v>157</v>
+      </c>
+      <c r="D28" s="18">
+        <f t="shared" ref="D28:K31" si="1">SUMIF($B$6:$B$26,$B28,D$6:D$26)</f>
+        <v>802381</v>
+      </c>
+      <c r="E28" s="18">
+        <f t="shared" si="1"/>
+        <v>645428</v>
+      </c>
+      <c r="F28" s="18">
+        <f t="shared" si="1"/>
+        <v>471238</v>
+      </c>
+      <c r="G28" s="18">
+        <f t="shared" si="1"/>
+        <v>772069</v>
+      </c>
+      <c r="H28" s="18">
+        <f t="shared" si="1"/>
+        <v>972000</v>
+      </c>
+      <c r="I28" s="18">
+        <f t="shared" si="1"/>
+        <v>1074096</v>
+      </c>
+      <c r="J28" s="18">
+        <f t="shared" si="1"/>
+        <v>1156493</v>
+      </c>
+      <c r="K28" s="18">
+        <f t="shared" si="1"/>
+        <v>1027095</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>156</v>
+      </c>
+      <c r="B29" t="s">
+        <v>11</v>
+      </c>
+      <c r="C29" t="s">
+        <v>157</v>
+      </c>
+      <c r="D29" s="18">
+        <f t="shared" si="1"/>
+        <v>261518</v>
+      </c>
+      <c r="E29" s="18">
+        <f t="shared" si="1"/>
+        <v>183920</v>
+      </c>
+      <c r="F29" s="18">
+        <f t="shared" si="1"/>
+        <v>298369</v>
+      </c>
+      <c r="G29" s="18">
+        <f t="shared" si="1"/>
+        <v>333739</v>
+      </c>
+      <c r="H29" s="18">
+        <f t="shared" si="1"/>
+        <v>631006</v>
+      </c>
+      <c r="I29" s="18">
+        <f t="shared" si="1"/>
+        <v>700263</v>
+      </c>
+      <c r="J29" s="18">
+        <f t="shared" si="1"/>
+        <v>545420</v>
+      </c>
+      <c r="K29" s="18">
+        <f t="shared" si="1"/>
+        <v>1165156</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>156</v>
+      </c>
+      <c r="B30" t="s">
+        <v>9</v>
+      </c>
+      <c r="C30" t="s">
+        <v>157</v>
+      </c>
+      <c r="D30" s="18">
+        <f t="shared" si="1"/>
+        <v>1248617</v>
+      </c>
+      <c r="E30" s="18">
+        <f t="shared" si="1"/>
+        <v>1631860</v>
+      </c>
+      <c r="F30" s="18">
+        <f t="shared" si="1"/>
+        <v>1777653</v>
+      </c>
+      <c r="G30" s="18">
+        <f t="shared" si="1"/>
+        <v>1145510</v>
+      </c>
+      <c r="H30" s="18">
+        <f t="shared" si="1"/>
+        <v>1535684</v>
+      </c>
+      <c r="I30" s="18">
+        <f t="shared" si="1"/>
+        <v>1867982</v>
+      </c>
+      <c r="J30" s="18">
+        <f t="shared" si="1"/>
+        <v>1893893</v>
+      </c>
+      <c r="K30" s="18">
+        <f t="shared" si="1"/>
+        <v>1974713</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>156</v>
+      </c>
+      <c r="B31" t="s">
+        <v>132</v>
+      </c>
+      <c r="C31" t="s">
+        <v>157</v>
+      </c>
+      <c r="D31" s="18">
+        <f t="shared" si="1"/>
+        <v>393757</v>
+      </c>
+      <c r="E31" s="18">
+        <f t="shared" si="1"/>
+        <v>526048</v>
+      </c>
+      <c r="F31" s="18">
+        <f t="shared" si="1"/>
+        <v>197325</v>
+      </c>
+      <c r="G31" s="18">
+        <f t="shared" si="1"/>
+        <v>207426</v>
+      </c>
+      <c r="H31" s="18">
+        <f t="shared" si="1"/>
+        <v>267857</v>
+      </c>
+      <c r="I31" s="18">
+        <f t="shared" si="1"/>
+        <v>321714</v>
+      </c>
+      <c r="J31" s="18">
+        <f t="shared" si="1"/>
+        <v>234902</v>
+      </c>
+      <c r="K31" s="18">
+        <f t="shared" si="1"/>
+        <v>381778</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>156</v>
+      </c>
+      <c r="B32" t="str">
+        <f>INDEX($B$6:$B$26,MATCH(C32,$C$6:$C$26,0))</f>
+        <v>North America</v>
+      </c>
+      <c r="C32" t="s">
+        <v>133</v>
+      </c>
+      <c r="D32" s="18">
+        <f>SUMIF($C$6:$C$26,$C32,D$6:D$26)</f>
+        <v>294470</v>
+      </c>
+      <c r="E32" s="18">
+        <f t="shared" ref="E32:K47" si="2">SUMIF($C$6:$C$26,$C32,E$6:E$26)</f>
+        <v>186951</v>
+      </c>
+      <c r="F32" s="18">
+        <f t="shared" si="2"/>
+        <v>367618</v>
+      </c>
+      <c r="G32" s="18">
+        <f t="shared" si="2"/>
+        <v>231313</v>
+      </c>
+      <c r="H32" s="18">
+        <f t="shared" si="2"/>
+        <v>104650</v>
+      </c>
+      <c r="I32" s="18">
+        <f t="shared" si="2"/>
+        <v>194875</v>
+      </c>
+      <c r="J32" s="18">
+        <f t="shared" si="2"/>
+        <v>213221</v>
+      </c>
+      <c r="K32" s="18">
+        <f t="shared" si="2"/>
+        <v>193992</v>
+      </c>
+      <c r="L32" s="18"/>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>156</v>
+      </c>
+      <c r="B33" t="str">
+        <f t="shared" ref="B33:B50" si="3">INDEX($B$6:$B$26,MATCH(C33,$C$6:$C$26,0))</f>
+        <v>Asia</v>
+      </c>
+      <c r="C33" t="s">
+        <v>134</v>
+      </c>
+      <c r="D33" s="18">
+        <f t="shared" ref="D33:K50" si="4">SUMIF($C$6:$C$26,$C33,D$6:D$26)</f>
+        <v>454644</v>
+      </c>
+      <c r="E33" s="18">
+        <f t="shared" si="2"/>
+        <v>373951</v>
+      </c>
+      <c r="F33" s="18">
+        <f t="shared" si="2"/>
+        <v>452918</v>
+      </c>
+      <c r="G33" s="18">
+        <f t="shared" si="2"/>
+        <v>341964</v>
+      </c>
+      <c r="H33" s="18">
+        <f t="shared" si="2"/>
+        <v>383853</v>
+      </c>
+      <c r="I33" s="18">
+        <f t="shared" si="2"/>
+        <v>371618</v>
+      </c>
+      <c r="J33" s="18">
+        <f t="shared" si="2"/>
+        <v>612583</v>
+      </c>
+      <c r="K33" s="18">
+        <f t="shared" si="2"/>
+        <v>341273</v>
+      </c>
+      <c r="L33" s="18"/>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>156</v>
+      </c>
+      <c r="B34" t="str">
+        <f t="shared" si="3"/>
+        <v>Africa</v>
+      </c>
+      <c r="C34" t="s">
+        <v>135</v>
+      </c>
+      <c r="D34" s="18">
+        <f t="shared" si="4"/>
+        <v>280973</v>
+      </c>
+      <c r="E34" s="18">
+        <f t="shared" si="2"/>
+        <v>354725</v>
+      </c>
+      <c r="F34" s="18">
+        <f t="shared" si="2"/>
+        <v>100058</v>
+      </c>
+      <c r="G34" s="18">
+        <f t="shared" si="2"/>
+        <v>159938</v>
+      </c>
+      <c r="H34" s="18">
+        <f t="shared" si="2"/>
+        <v>413803</v>
+      </c>
+      <c r="I34" s="18">
+        <f t="shared" si="2"/>
+        <v>367772</v>
+      </c>
+      <c r="J34" s="18">
+        <f t="shared" si="2"/>
+        <v>284116</v>
+      </c>
+      <c r="K34" s="18">
+        <f t="shared" si="2"/>
+        <v>321618</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>156</v>
+      </c>
+      <c r="B35" t="str">
+        <f t="shared" si="3"/>
+        <v>Europe</v>
+      </c>
+      <c r="C35" t="s">
+        <v>136</v>
+      </c>
+      <c r="D35" s="18">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="E35" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F35" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G35" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H35" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I35" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J35" s="18">
+        <f t="shared" si="2"/>
+        <v>123453</v>
+      </c>
+      <c r="K35" s="18">
+        <f t="shared" si="2"/>
+        <v>287457</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>156</v>
+      </c>
+      <c r="B36" t="str">
+        <f t="shared" si="3"/>
+        <v>North America</v>
+      </c>
+      <c r="C36" t="s">
+        <v>137</v>
+      </c>
+      <c r="D36" s="18">
+        <f t="shared" si="4"/>
+        <v>97664</v>
+      </c>
+      <c r="E36" s="18">
+        <f t="shared" si="2"/>
+        <v>175113</v>
+      </c>
+      <c r="F36" s="18">
+        <f t="shared" si="2"/>
+        <v>145525</v>
+      </c>
+      <c r="G36" s="18">
+        <f t="shared" si="2"/>
+        <v>115866</v>
+      </c>
+      <c r="H36" s="18">
+        <f t="shared" si="2"/>
+        <v>231794</v>
+      </c>
+      <c r="I36" s="18">
+        <f t="shared" si="2"/>
+        <v>214229</v>
+      </c>
+      <c r="J36" s="18">
+        <f t="shared" si="2"/>
+        <v>302197</v>
+      </c>
+      <c r="K36" s="18">
+        <f t="shared" si="2"/>
+        <v>360759</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>156</v>
+      </c>
+      <c r="B37" t="str">
+        <f t="shared" si="3"/>
+        <v>Europe</v>
+      </c>
+      <c r="C37" t="s">
+        <v>138</v>
+      </c>
+      <c r="D37" s="18">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="E37" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F37" s="18">
+        <f t="shared" si="2"/>
+        <v>95423</v>
+      </c>
+      <c r="G37" s="18">
+        <f t="shared" si="2"/>
+        <v>127835</v>
+      </c>
+      <c r="H37" s="18">
+        <f t="shared" si="2"/>
+        <v>406324</v>
+      </c>
+      <c r="I37" s="18">
+        <f t="shared" si="2"/>
+        <v>423569</v>
+      </c>
+      <c r="J37" s="18">
+        <f t="shared" si="2"/>
+        <v>160758</v>
+      </c>
+      <c r="K37" s="18">
+        <f t="shared" si="2"/>
+        <v>287874</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>156</v>
+      </c>
+      <c r="B38" t="str">
+        <f t="shared" si="3"/>
+        <v>North America</v>
+      </c>
+      <c r="C38" t="s">
+        <v>139</v>
+      </c>
+      <c r="D38" s="18">
+        <f t="shared" si="4"/>
+        <v>96072</v>
+      </c>
+      <c r="E38" s="18">
+        <f t="shared" si="2"/>
+        <v>322071</v>
+      </c>
+      <c r="F38" s="18">
+        <f t="shared" si="2"/>
+        <v>337517</v>
+      </c>
+      <c r="G38" s="18">
+        <f t="shared" si="2"/>
+        <v>146034</v>
+      </c>
+      <c r="H38" s="18">
+        <f t="shared" si="2"/>
+        <v>364865</v>
+      </c>
+      <c r="I38" s="18">
+        <f t="shared" si="2"/>
+        <v>414727</v>
+      </c>
+      <c r="J38" s="18">
+        <f t="shared" si="2"/>
+        <v>250822</v>
+      </c>
+      <c r="K38" s="18">
+        <f t="shared" si="2"/>
+        <v>423552</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>156</v>
+      </c>
+      <c r="B39" t="str">
+        <f t="shared" si="3"/>
+        <v>Europe</v>
+      </c>
+      <c r="C39" t="s">
+        <v>140</v>
+      </c>
+      <c r="D39" s="18">
+        <f t="shared" si="4"/>
+        <v>261518</v>
+      </c>
+      <c r="E39" s="18">
+        <f t="shared" si="2"/>
+        <v>183920</v>
+      </c>
+      <c r="F39" s="18">
+        <f t="shared" si="2"/>
+        <v>202946</v>
+      </c>
+      <c r="G39" s="18">
+        <f t="shared" si="2"/>
+        <v>205904</v>
+      </c>
+      <c r="H39" s="18">
+        <f t="shared" si="2"/>
+        <v>224682</v>
+      </c>
+      <c r="I39" s="18">
+        <f t="shared" si="2"/>
+        <v>276694</v>
+      </c>
+      <c r="J39" s="18">
+        <f t="shared" si="2"/>
+        <v>261209</v>
+      </c>
+      <c r="K39" s="18">
+        <f t="shared" si="2"/>
+        <v>348653</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>156</v>
+      </c>
+      <c r="B40" t="str">
+        <f t="shared" si="3"/>
+        <v>Europe</v>
+      </c>
+      <c r="C40" t="s">
+        <v>141</v>
+      </c>
+      <c r="D40" s="18">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="E40" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F40" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G40" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H40" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I40" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J40" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K40" s="18">
+        <f t="shared" si="2"/>
+        <v>241172</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>156</v>
+      </c>
+      <c r="B41" t="str">
+        <f t="shared" si="3"/>
+        <v>South America</v>
+      </c>
+      <c r="C41" t="s">
+        <v>142</v>
+      </c>
+      <c r="D41" s="18">
+        <f t="shared" si="4"/>
+        <v>104533</v>
+      </c>
+      <c r="E41" s="18">
+        <f t="shared" si="2"/>
+        <v>331448</v>
+      </c>
+      <c r="F41" s="18">
+        <f t="shared" si="2"/>
+        <v>197325</v>
+      </c>
+      <c r="G41" s="18">
+        <f t="shared" si="2"/>
+        <v>207426</v>
+      </c>
+      <c r="H41" s="18">
+        <f t="shared" si="2"/>
+        <v>267857</v>
+      </c>
+      <c r="I41" s="18">
+        <f t="shared" si="2"/>
+        <v>220092</v>
+      </c>
+      <c r="J41" s="18">
+        <f t="shared" si="2"/>
+        <v>114437</v>
+      </c>
+      <c r="K41" s="18">
+        <f t="shared" si="2"/>
+        <v>119241</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>156</v>
+      </c>
+      <c r="B42" t="str">
+        <f t="shared" si="3"/>
+        <v>Asia</v>
+      </c>
+      <c r="C42" t="s">
+        <v>143</v>
+      </c>
+      <c r="D42" s="18">
+        <f t="shared" si="4"/>
+        <v>324209</v>
+      </c>
+      <c r="E42" s="18">
+        <f t="shared" si="2"/>
+        <v>253397</v>
+      </c>
+      <c r="F42" s="18">
+        <f t="shared" si="2"/>
+        <v>298893</v>
+      </c>
+      <c r="G42" s="18">
+        <f t="shared" si="2"/>
+        <v>116472</v>
+      </c>
+      <c r="H42" s="18">
+        <f t="shared" si="2"/>
+        <v>209008</v>
+      </c>
+      <c r="I42" s="18">
+        <f t="shared" si="2"/>
+        <v>284024</v>
+      </c>
+      <c r="J42" s="18">
+        <f t="shared" si="2"/>
+        <v>295343</v>
+      </c>
+      <c r="K42" s="18">
+        <f t="shared" si="2"/>
+        <v>303757</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>156</v>
+      </c>
+      <c r="B43" t="str">
+        <f t="shared" si="3"/>
+        <v>Asia</v>
+      </c>
+      <c r="C43" t="s">
+        <v>144</v>
+      </c>
+      <c r="D43" s="18">
+        <f t="shared" si="4"/>
+        <v>182673</v>
+      </c>
+      <c r="E43" s="18">
+        <f t="shared" si="2"/>
+        <v>338317</v>
+      </c>
+      <c r="F43" s="18">
+        <f t="shared" si="2"/>
+        <v>224638</v>
+      </c>
+      <c r="G43" s="18">
+        <f t="shared" si="2"/>
+        <v>199913</v>
+      </c>
+      <c r="H43" s="18">
+        <f t="shared" si="2"/>
+        <v>157338</v>
+      </c>
+      <c r="I43" s="18">
+        <f t="shared" si="2"/>
+        <v>438173</v>
+      </c>
+      <c r="J43" s="18">
+        <f t="shared" si="2"/>
+        <v>416473</v>
+      </c>
+      <c r="K43" s="18">
+        <f t="shared" si="2"/>
+        <v>242891</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>156</v>
+      </c>
+      <c r="B44" t="str">
+        <f t="shared" si="3"/>
+        <v>North America</v>
+      </c>
+      <c r="C44" t="s">
+        <v>145</v>
+      </c>
+      <c r="D44" s="18">
+        <f t="shared" si="4"/>
+        <v>359697</v>
+      </c>
+      <c r="E44" s="18">
+        <f t="shared" si="2"/>
+        <v>395046</v>
+      </c>
+      <c r="F44" s="18">
+        <f t="shared" si="2"/>
+        <v>129871</v>
+      </c>
+      <c r="G44" s="18">
+        <f t="shared" si="2"/>
+        <v>112396</v>
+      </c>
+      <c r="H44" s="18">
+        <f t="shared" si="2"/>
+        <v>185351</v>
+      </c>
+      <c r="I44" s="18">
+        <f t="shared" si="2"/>
+        <v>172879</v>
+      </c>
+      <c r="J44" s="18">
+        <f t="shared" si="2"/>
+        <v>415627</v>
+      </c>
+      <c r="K44" s="18">
+        <f t="shared" si="2"/>
+        <v>224008</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>156</v>
+      </c>
+      <c r="B45" t="str">
+        <f t="shared" si="3"/>
+        <v>South America</v>
+      </c>
+      <c r="C45" t="s">
+        <v>146</v>
+      </c>
+      <c r="D45" s="18">
+        <f t="shared" si="4"/>
+        <v>289224</v>
+      </c>
+      <c r="E45" s="18">
+        <f t="shared" si="2"/>
+        <v>194600</v>
+      </c>
+      <c r="F45" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G45" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H45" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I45" s="18">
+        <f t="shared" si="2"/>
+        <v>101622</v>
+      </c>
+      <c r="J45" s="18">
+        <f t="shared" si="2"/>
+        <v>120465</v>
+      </c>
+      <c r="K45" s="18">
+        <f t="shared" si="2"/>
+        <v>262537</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>156</v>
+      </c>
+      <c r="B46" t="str">
+        <f t="shared" si="3"/>
+        <v>North America</v>
+      </c>
+      <c r="C46" t="s">
+        <v>147</v>
+      </c>
+      <c r="D46" s="18">
+        <f t="shared" si="4"/>
+        <v>281335</v>
+      </c>
+      <c r="E46" s="18">
+        <f t="shared" si="2"/>
+        <v>290674</v>
+      </c>
+      <c r="F46" s="18">
+        <f t="shared" si="2"/>
+        <v>213416</v>
+      </c>
+      <c r="G46" s="18">
+        <f t="shared" si="2"/>
+        <v>138896</v>
+      </c>
+      <c r="H46" s="18">
+        <f t="shared" si="2"/>
+        <v>148716</v>
+      </c>
+      <c r="I46" s="18">
+        <f t="shared" si="2"/>
+        <v>440788</v>
+      </c>
+      <c r="J46" s="18">
+        <f t="shared" si="2"/>
+        <v>118717</v>
+      </c>
+      <c r="K46" s="18">
+        <f t="shared" si="2"/>
+        <v>295393</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>156</v>
+      </c>
+      <c r="B47" t="str">
+        <f t="shared" si="3"/>
+        <v>Africa</v>
+      </c>
+      <c r="C47" t="s">
+        <v>148</v>
+      </c>
+      <c r="D47" s="18">
+        <f t="shared" si="4"/>
+        <v>393053</v>
+      </c>
+      <c r="E47" s="18">
+        <f t="shared" si="2"/>
+        <v>155131</v>
+      </c>
+      <c r="F47" s="18">
+        <f t="shared" si="2"/>
+        <v>197972</v>
+      </c>
+      <c r="G47" s="18">
+        <f t="shared" si="2"/>
+        <v>347987</v>
+      </c>
+      <c r="H47" s="18">
+        <f t="shared" si="2"/>
+        <v>120062</v>
+      </c>
+      <c r="I47" s="18">
+        <f t="shared" si="2"/>
+        <v>402641</v>
+      </c>
+      <c r="J47" s="18">
+        <f t="shared" si="2"/>
+        <v>426099</v>
+      </c>
+      <c r="K47" s="18">
+        <f t="shared" si="2"/>
+        <v>442987</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>156</v>
+      </c>
+      <c r="B48" t="str">
+        <f t="shared" si="3"/>
+        <v>North America</v>
+      </c>
+      <c r="C48" t="s">
+        <v>149</v>
+      </c>
+      <c r="D48" s="18">
+        <f t="shared" si="4"/>
+        <v>119379</v>
+      </c>
+      <c r="E48" s="18">
+        <f t="shared" si="4"/>
+        <v>160105</v>
+      </c>
+      <c r="F48" s="18">
+        <f t="shared" si="4"/>
+        <v>219178</v>
+      </c>
+      <c r="G48" s="18">
+        <f t="shared" si="4"/>
+        <v>189883</v>
+      </c>
+      <c r="H48" s="18">
+        <f t="shared" si="4"/>
+        <v>146168</v>
+      </c>
+      <c r="I48" s="18">
+        <f t="shared" si="4"/>
+        <v>237376</v>
+      </c>
+      <c r="J48" s="18">
+        <f t="shared" si="4"/>
+        <v>344725</v>
+      </c>
+      <c r="K48" s="18">
+        <f t="shared" si="4"/>
+        <v>243717</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>156</v>
+      </c>
+      <c r="B49" t="str">
+        <f t="shared" si="3"/>
+        <v>North America</v>
+      </c>
+      <c r="C49" t="s">
+        <v>150</v>
+      </c>
+      <c r="D49" s="18">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="E49" s="18">
+        <f t="shared" si="4"/>
+        <v>101900</v>
+      </c>
+      <c r="F49" s="18">
+        <f t="shared" si="4"/>
+        <v>364528</v>
+      </c>
+      <c r="G49" s="18">
+        <f t="shared" si="4"/>
+        <v>211122</v>
+      </c>
+      <c r="H49" s="18">
+        <f t="shared" si="4"/>
+        <v>354140</v>
+      </c>
+      <c r="I49" s="18">
+        <f t="shared" si="4"/>
+        <v>193108</v>
+      </c>
+      <c r="J49" s="18">
+        <f t="shared" si="4"/>
+        <v>248584</v>
+      </c>
+      <c r="K49" s="18">
+        <f t="shared" si="4"/>
+        <v>233292</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>156</v>
+      </c>
+      <c r="B50" t="str">
+        <f t="shared" si="3"/>
+        <v>Africa</v>
+      </c>
+      <c r="C50" t="s">
+        <v>151</v>
+      </c>
+      <c r="D50" s="18">
+        <f t="shared" si="4"/>
+        <v>128355</v>
+      </c>
+      <c r="E50" s="18">
+        <f t="shared" si="4"/>
+        <v>135572</v>
+      </c>
+      <c r="F50" s="18">
+        <f t="shared" si="4"/>
+        <v>173208</v>
+      </c>
+      <c r="G50" s="18">
+        <f t="shared" si="4"/>
+        <v>264144</v>
+      </c>
+      <c r="H50" s="18">
+        <f t="shared" si="4"/>
+        <v>438135</v>
+      </c>
+      <c r="I50" s="18">
+        <f t="shared" si="4"/>
+        <v>303683</v>
+      </c>
+      <c r="J50" s="18">
+        <f t="shared" si="4"/>
+        <v>446278</v>
+      </c>
+      <c r="K50" s="18">
+        <f t="shared" si="4"/>
+        <v>262490</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="D4:G4"/>
+    <mergeCell ref="H4:K4"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000E1CD5F422E388419BB522F4435A2991" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="e5c10cafc2c37c7f469fd87ac61c85e7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="e126d1a7-de2c-4ae3-80af-dc9ec7d9558b" xmlns:ns3="16c367a0-1ebe-4645-bffe-e50f3117a967" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="64cf9e92a51322bbdec604bdb87428eb" ns2:_="" ns3:_="">
     <xsd:import namespace="e126d1a7-de2c-4ae3-80af-dc9ec7d9558b"/>
@@ -3282,22 +5202,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0E5A85AC-2CBD-412F-82B1-8F6832D6B804}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{16C85F02-9775-4D6C-AF6B-784E84E858E8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DAA3212C-9EA0-4F60-9BC2-AD5EAEF2279B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3314,21 +5236,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{16C85F02-9775-4D6C-AF6B-784E84E858E8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0E5A85AC-2CBD-412F-82B1-8F6832D6B804}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>